--- a/csv_files/2d_10z_100classes/target_vs_output_100classes.xlsx
+++ b/csv_files/2d_10z_100classes/target_vs_output_100classes.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ניר צדוק\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_nir_repo_new\csv_files\2d_10z_100classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6AE05-4959-4988-9BF6-72768EBDD50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,6 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,13 +179,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="טוב" xfId="1" builtinId="26"/>
-    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
-    <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,9 +200,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -241,6 +240,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -293,6 +293,642 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>גיליון1!$O$3:$O$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.98601329718326935</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.47140452079103173</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.3333333333333335</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.3238575142399442</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>17.413277182145301</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>15.168498057926941</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10.994948334980428</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>41.262035281303753</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>26.787227470485924</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>69.52117982632663</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>89.75274678557507</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>78.155116417431202</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>84.429293231410853</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>110.59071188646701</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>110.85864372654434</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>119.03827582383371</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>118.24492002243103</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>139.17005983887324</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>151.92505462306809</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>155.11527971157452</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180.67673711170826</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>179.34038090241202</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>176.37987728511183</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193.92975532393169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>225.41862291202909</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>203.96187007488544</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>127.59255899585648</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>166.12077266588642</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>196.57759282278334</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>197.35444706866321</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>149.13258456077861</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>128.51577940298054</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>186.12801747423435</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>183.38120587090344</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>186.01814427630441</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>154.94909558375042</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>143.49061138470196</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>173.07055401386646</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>153.33731878878453</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>140.8280077888549</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>160.27225101197163</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>118.34917734305456</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>139.01348855416873</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>121.7620630574236</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>107.9036349918039</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>115.3049097923511</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>111.56002370423238</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>131.19228889941158</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>121.310780871098</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>111.4654904244159</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>106.11982221369705</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>83.697039639669725</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>80.062475604992386</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>87.698188249371626</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>87.104662459722704</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>73.967710673118873</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>55.982140009113621</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>65.695425174732591</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>46.136271582731474</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>48.154842839416361</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>46.360903068569897</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>45.226590015658317</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>40.17876719529027</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>34.244220923634202</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>39.443348967573456</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>32.934277989150864</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>34.294071402114582</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>22.035325174717883</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>23.640830968662861</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>21.521952616908266</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>16.940254491070146</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>20.365411854416301</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>11.799246680285238</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>14.216578741424083</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>10.353474993664902</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>9.4516312525052175</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>10.887046329366738</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>5.6273143387113773</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>4.651761912317621</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.0442486501405188</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>3.6016971308290517</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.2801909579781015</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2.0207259421636903</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2.0207259421636903</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>0.98601329718326935</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>0.47140452079103173</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1.4433756729740645</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>0.47140452079103173</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>0.28867513459481292</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>גיליון1!$O$3:$O$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.98601329718326935</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.47140452079103173</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.3333333333333335</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.3238575142399442</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>17.413277182145301</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>15.168498057926941</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10.994948334980428</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>41.262035281303753</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>26.787227470485924</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>69.52117982632663</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>89.75274678557507</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>78.155116417431202</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>84.429293231410853</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>110.59071188646701</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>110.85864372654434</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>119.03827582383371</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>118.24492002243103</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>139.17005983887324</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>151.92505462306809</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>155.11527971157452</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180.67673711170826</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>179.34038090241202</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>176.37987728511183</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193.92975532393169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>225.41862291202909</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>203.96187007488544</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>127.59255899585648</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>166.12077266588642</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>196.57759282278334</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>197.35444706866321</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>149.13258456077861</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>128.51577940298054</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>186.12801747423435</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>183.38120587090344</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>186.01814427630441</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>154.94909558375042</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>143.49061138470196</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>173.07055401386646</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>153.33731878878453</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>140.8280077888549</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>160.27225101197163</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>118.34917734305456</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>139.01348855416873</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>121.7620630574236</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>107.9036349918039</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>115.3049097923511</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>111.56002370423238</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>131.19228889941158</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>121.310780871098</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>111.4654904244159</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>106.11982221369705</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>83.697039639669725</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>80.062475604992386</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>87.698188249371626</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>87.104662459722704</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>73.967710673118873</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>55.982140009113621</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>65.695425174732591</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>46.136271582731474</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>48.154842839416361</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>46.360903068569897</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>45.226590015658317</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>40.17876719529027</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>34.244220923634202</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>39.443348967573456</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>32.934277989150864</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>34.294071402114582</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>22.035325174717883</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>23.640830968662861</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>21.521952616908266</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>16.940254491070146</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>20.365411854416301</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>11.799246680285238</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>14.216578741424083</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>10.353474993664902</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>9.4516312525052175</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>10.887046329366738</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>5.6273143387113773</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>4.651761912317621</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.0442486501405188</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>3.6016971308290517</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.2801909579781015</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2.0207259421636903</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2.0207259421636903</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>0.98601329718326935</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>0.47140452079103173</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1.4433756729740645</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>0.47140452079103173</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>0.28867513459481292</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>גיליון1!$M$3:$M$102</c:f>
@@ -602,7 +1238,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6D95-45FA-9DC1-B2D89769F1A2}"/>
             </c:ext>
@@ -624,6 +1260,642 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>גיליון1!$O$110:$O$209</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>5.7440086188116979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6761009788951111</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3342059143941785</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0068899635988786</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.1978193418371474</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.3095046379600248</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.3166111942832792</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0774142406207545</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.151798021624149</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.0035365576371991</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.2286183059615032</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.9612700467490161</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>15.837855970865693</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>32.569049024425873</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>20.268160437188705</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>43.735268014947145</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>47.795186200301359</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>86.615465741362698</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>79.152201949643484</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>55.838015809142476</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>103.9442308426661</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>123.22419782770756</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>112.13755242661738</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>150.09851814521511</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>160.86174652087479</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>147.81016691883929</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>139.97753417629565</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>133.71994128971525</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>162.62812406138667</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186.27205571608152</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>203.38681220451133</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>162.89255870646065</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>177.54278876779475</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>202.51264887509058</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>190.55164245511725</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>163.45420992590047</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>196.43967113567609</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>203.53148883817556</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>194.46729692344337</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>181.53367476197482</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>187.67878402416932</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>179.02334096567378</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>155.15777868044336</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>123.43891446448667</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>167.50929695304049</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>150.17755466633389</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>160.87515919489732</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>153.22986954913392</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>138.82290276838029</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>141.39919757831242</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>140.60408112812971</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>135.0164448450567</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>98.367383882163097</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>140.33933065602631</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>101.07059137075395</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>84.847935890020452</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>80.977032626078582</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>95.156608331183435</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>93.242364084029035</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>88.738886054570159</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>86.356682582308949</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>93.4602090990997</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>77.088145126603067</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>62.482184910903179</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>51.038073360636453</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>67.563881243798633</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>40.318396653111705</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>48.593195089093911</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>41.948264199555609</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>33.886309536414942</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>35.448958576010241</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>20.975559396444652</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>24.224803314465596</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>14.13285904747894</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>18.51440362087034</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>19.846347116494176</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>10.212340705724065</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>15.957535313887863</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>13.103083850388774</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>7.627325557504844</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>11.857486027275584</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>8.9770945700545131</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>11.061708030156812</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>8.1511774797650425</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>9.3023860658892534</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>7.1223628571127335</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>9.3437496332929921</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>5.4880261901236382</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>7.5511739386203045</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>3.0996469173402148</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2.2348622022037481</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>7.3966892501837895</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>4.9760449151749944</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1.0349065863733777</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>3.1594989086412144</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>4.6716399142794875</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2.5898460097708855</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>4.9104617118829204</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>7.4892468911163599</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>3.9086006812509555</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>גיליון1!$O$110:$O$209</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>5.7440086188116979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6761009788951111</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3342059143941785</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0068899635988786</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.1978193418371474</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.3095046379600248</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.3166111942832792</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0774142406207545</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.151798021624149</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.0035365576371991</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.2286183059615032</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.9612700467490161</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>15.837855970865693</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>32.569049024425873</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>20.268160437188705</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>43.735268014947145</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>47.795186200301359</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>86.615465741362698</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>79.152201949643484</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>55.838015809142476</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>103.9442308426661</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>123.22419782770756</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>112.13755242661738</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>150.09851814521511</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>160.86174652087479</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>147.81016691883929</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>139.97753417629565</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>133.71994128971525</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>162.62812406138667</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186.27205571608152</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>203.38681220451133</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>162.89255870646065</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>177.54278876779475</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>202.51264887509058</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>190.55164245511725</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>163.45420992590047</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>196.43967113567609</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>203.53148883817556</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>194.46729692344337</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>181.53367476197482</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>187.67878402416932</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>179.02334096567378</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>155.15777868044336</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>123.43891446448667</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>167.50929695304049</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>150.17755466633389</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>160.87515919489732</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>153.22986954913392</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>138.82290276838029</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>141.39919757831242</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>140.60408112812971</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>135.0164448450567</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>98.367383882163097</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>140.33933065602631</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>101.07059137075395</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>84.847935890020452</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>80.977032626078582</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>95.156608331183435</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>93.242364084029035</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>88.738886054570159</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>86.356682582308949</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>93.4602090990997</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>77.088145126603067</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>62.482184910903179</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>51.038073360636453</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>67.563881243798633</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>40.318396653111705</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>48.593195089093911</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>41.948264199555609</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>33.886309536414942</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>35.448958576010241</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>20.975559396444652</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>24.224803314465596</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>14.13285904747894</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>18.51440362087034</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>19.846347116494176</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>10.212340705724065</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>15.957535313887863</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>13.103083850388774</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>7.627325557504844</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>11.857486027275584</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>8.9770945700545131</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>11.061708030156812</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>8.1511774797650425</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>9.3023860658892534</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>7.1223628571127335</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>9.3437496332929921</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>5.4880261901236382</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>7.5511739386203045</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>3.0996469173402148</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2.2348622022037481</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>7.3966892501837895</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>4.9760449151749944</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1.0349065863733777</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>3.1594989086412144</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>4.6716399142794875</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2.5898460097708855</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>4.9104617118829204</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>7.4892468911163599</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>3.9086006812509555</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>גיליון1!$M$110:$M$209</c:f>
@@ -933,7 +2205,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6D95-45FA-9DC1-B2D89769F1A2}"/>
             </c:ext>
@@ -948,11 +2220,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="313343800"/>
-        <c:axId val="358657056"/>
+        <c:axId val="312738360"/>
+        <c:axId val="361076072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313343800"/>
+        <c:axId val="312738360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,6 +2271,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1064,7 +2337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358657056"/>
+        <c:crossAx val="361076072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +2345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358657056"/>
+        <c:axId val="361076072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,6 +2392,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1185,7 +2459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313343800"/>
+        <c:crossAx val="312738360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1238,6 +2512,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1269,14 +2544,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1877,17 +3152,17 @@
       <xdr:rowOff>34289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,41 +3479,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD76" sqref="AD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>0</v>
@@ -2252,7 +3527,7 @@
       <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="2"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2266,7 +3541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2283,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f>SUM(B3:K3)/178</f>
+        <f>SUM(B3:K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
@@ -2291,15 +3566,15 @@
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f>STDEV(B3:K3)/178</f>
+        <f>STDEV(B3:K3)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>N3/SQRT(3)/178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <f>N3/SQRT(3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2316,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L67" si="0">SUM(B4:K4)/178</f>
+        <f t="shared" ref="L4:L67" si="0">SUM(B4:K4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="1">
@@ -2324,15 +3599,15 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N67" si="2">STDEV(B4:K4)/178</f>
+        <f t="shared" ref="N4:N67" si="2">STDEV(B4:K4)</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O67" si="3">N4/SQRT(3)/178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O4:O67" si="3">N4/SQRT(3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2365,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2398,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2431,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2464,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2497,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2515,7 +3790,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>3.9325842696629212E-2</v>
+        <v>7</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
@@ -2523,14 +3798,14 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>9.5945231891007478E-3</v>
+        <v>1.707825127659933</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>3.1120227786367548E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.98601329718326935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2548,7 +3823,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
+        <v>4</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
@@ -2556,14 +3831,14 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>4.5870594434141909E-3</v>
+        <v>0.81649658092772603</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>1.4878314631707854E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.47140452079103173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2581,7 +3856,7 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>1.5168539325842696</v>
+        <v>270</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="1"/>
@@ -2589,14 +3864,14 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>2.2704785867007755E-2</v>
+        <v>4.0414518843273806</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>7.3643900180953581E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2614,7 +3889,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>3.702247191011236</v>
+        <v>659</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
@@ -2622,14 +3897,14 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>7.1265692820554408E-2</v>
+        <v>12.685293322058685</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>2.3115318502209143E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.3238575142399442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2647,7 +3922,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>7.2696629213483144</v>
+        <v>1294</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
@@ -2655,14 +3930,14 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>0.16944202699862626</v>
+        <v>30.160680805755472</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>5.4959213426793662E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17.413277182145301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2680,7 +3955,7 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>11.98314606741573</v>
+        <v>2133</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="1"/>
@@ -2688,14 +3963,14 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>0.14759892871258035</v>
+        <v>26.272609310839304</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>4.7874315294555418E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.168498057926941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2713,7 +3988,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>18.337078651685392</v>
+        <v>3264</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
@@ -2721,14 +3996,14 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>0.10698769181337603</v>
+        <v>19.043809142780933</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>3.4701894757544594E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.994948334980428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2746,7 +4021,7 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>25.49438202247191</v>
+        <v>4538</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
@@ -2754,14 +4029,14 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>0.40150528949953745</v>
+        <v>71.46794153091767</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>1.302298803222565E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41.262035281303753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2779,7 +4054,7 @@
       </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>33.325842696629216</v>
+        <v>5932</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
@@ -2787,14 +4062,14 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" si="2"/>
-        <v>0.26065639872351887</v>
+        <v>46.396838972786355</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>8.4544967398326998E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26.787227470485924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2812,7 +4087,7 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>40.949438202247194</v>
+        <v>7289</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="1"/>
@@ -2820,14 +4095,14 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" si="2"/>
-        <v>0.67648435764792236</v>
+        <v>120.41421566133018</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>2.1942046403966237E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69.52117982632663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2845,7 +4120,7 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>51.955056179775283</v>
+        <v>9248</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
@@ -2853,14 +4128,14 @@
       </c>
       <c r="N20" s="1">
         <f t="shared" si="2"/>
-        <v>0.87335009860382162</v>
+        <v>155.45631755148025</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>2.8327467108185539E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89.75274678557507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2878,7 +4153,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
-        <v>61.19101123595506</v>
+        <v>10892</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
@@ -2886,14 +4161,14 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" si="2"/>
-        <v>0.76049793542950184</v>
+        <v>135.36863250645132</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>2.4667061108897617E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78.155116417431202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2911,7 +4186,7 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>68.578651685393254</v>
+        <v>12207</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="1"/>
@@ -2919,14 +4194,14 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="2"/>
-        <v>0.82154958159513869</v>
+        <v>146.23582552393469</v>
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>2.6647296184639201E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84.429293231410853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2944,7 +4219,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
-        <v>77.264044943820224</v>
+        <v>13753</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="1"/>
@@ -2952,14 +4227,14 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" si="2"/>
-        <v>1.0761164709695068</v>
+        <v>191.5487318325722</v>
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>3.4904277201889605E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>110.59071188646701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2977,7 +4252,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
-        <v>86.061797752808985</v>
+        <v>15319</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="1"/>
@@ -2985,14 +4260,14 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" si="2"/>
-        <v>1.0787236145648964</v>
+        <v>192.01280339255158</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>3.4988840969115116E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>110.85864372654434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3010,7 +4285,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
-        <v>94.393258426966298</v>
+        <v>16802</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="1"/>
@@ -3018,14 +4293,14 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" si="2"/>
-        <v>1.1583165268105502</v>
+        <v>206.18034177227793</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>3.7570469582070983E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>119.03827582383371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3043,7 +4318,7 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="0"/>
-        <v>100.37640449438203</v>
+        <v>17867</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="1"/>
@@ -3051,14 +4326,14 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" si="2"/>
-        <v>1.1505966809874661</v>
+        <v>204.80620921576897</v>
       </c>
       <c r="O26">
         <f t="shared" si="3"/>
-        <v>3.7320073230157507E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118.24492002243103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3076,7 +4351,7 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="0"/>
-        <v>106.5561797752809</v>
+        <v>18967</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="1"/>
@@ -3084,14 +4359,14 @@
       </c>
       <c r="N27" s="1">
         <f t="shared" si="2"/>
-        <v>1.354211317602974</v>
+        <v>241.04961453332936</v>
       </c>
       <c r="O27">
         <f t="shared" si="3"/>
-        <v>4.3924397121219939E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139.17005983887324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3109,7 +4384,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="0"/>
-        <v>113.11235955056179</v>
+        <v>20134</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="1"/>
@@ -3117,14 +4392,14 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" si="2"/>
-        <v>1.4783253570215218</v>
+        <v>263.14191354983086</v>
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>4.7950086675630638E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>151.92505462306809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3142,7 +4417,7 @@
       </c>
       <c r="L29" s="1">
         <f t="shared" si="0"/>
-        <v>117.48876404494382</v>
+        <v>20913</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="1"/>
@@ -3150,14 +4425,14 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" si="2"/>
-        <v>1.5093682330938478</v>
+        <v>268.66754549070492</v>
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>4.8956975038370945E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>155.11527971157452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3175,7 +4450,7 @@
       </c>
       <c r="L30" s="1">
         <f t="shared" si="0"/>
-        <v>120.94943820224719</v>
+        <v>21529</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="1"/>
@@ -3183,14 +4458,14 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" si="2"/>
-        <v>1.7580971259732812</v>
+        <v>312.94128842324403</v>
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>5.7024598255178728E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>180.67673711170826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3208,7 +4483,7 @@
       </c>
       <c r="L31" s="1">
         <f t="shared" si="0"/>
-        <v>122.99438202247191</v>
+        <v>21893</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
@@ -3216,14 +4491,14 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" si="2"/>
-        <v>1.7450935481558023</v>
+        <v>310.62665157173279</v>
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>5.660282189824898E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>179.34038090241202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3241,7 +4516,7 @@
       </c>
       <c r="L32" s="1">
         <f t="shared" si="0"/>
-        <v>126.30898876404494</v>
+        <v>22483</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="1"/>
@@ -3249,14 +4524,14 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" si="2"/>
-        <v>1.7162860050032438</v>
+        <v>305.49890889057741</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>5.5668437471629792E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>176.37987728511183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3274,7 +4549,7 @@
       </c>
       <c r="L33" s="1">
         <f t="shared" si="0"/>
-        <v>127.09550561797752</v>
+        <v>22623</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="1"/>
@@ -3282,14 +4557,14 @@
       </c>
       <c r="N33" s="1">
         <f t="shared" si="2"/>
-        <v>1.8870572433733181</v>
+        <v>335.89618932045062</v>
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>6.1207472327967326E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>193.92975532393169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3307,7 +4582,7 @@
       </c>
       <c r="L34" s="1">
         <f t="shared" si="0"/>
-        <v>129.75280898876406</v>
+        <v>23096</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="1"/>
@@ -3315,14 +4590,14 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" si="2"/>
-        <v>2.1934635272800236</v>
+        <v>390.43650785584418</v>
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>7.1145885277120657E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>225.41862291202909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3340,7 +4615,7 @@
       </c>
       <c r="L35" s="1">
         <f t="shared" si="0"/>
-        <v>127.73033707865169</v>
+        <v>22736</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="1"/>
@@ -3348,14 +4623,14 @@
       </c>
       <c r="N35" s="1">
         <f t="shared" si="2"/>
-        <v>1.9846759650363131</v>
+        <v>353.27232177646374</v>
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>6.4373775430780654E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>203.96187007488544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3373,7 +4648,7 @@
       </c>
       <c r="L36" s="1">
         <f t="shared" si="0"/>
-        <v>124.24157303370787</v>
+        <v>22115</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="1"/>
@@ -3381,14 +4656,14 @@
       </c>
       <c r="N36" s="1">
         <f t="shared" si="2"/>
-        <v>1.2415550272390607</v>
+        <v>220.99679484855281</v>
       </c>
       <c r="O36">
         <f t="shared" si="3"/>
-        <v>4.0270344336528364E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>127.59255899585648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -3406,7 +4681,7 @@
       </c>
       <c r="L37" s="1">
         <f t="shared" si="0"/>
-        <v>124.30337078651685</v>
+        <v>22126</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="1"/>
@@ -3414,14 +4689,14 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" si="2"/>
-        <v>1.6164585306174968</v>
+        <v>287.72961844991443</v>
       </c>
       <c r="O37">
         <f t="shared" si="3"/>
-        <v>5.2430492572240377E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>166.12077266588642</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -3439,7 +4714,7 @@
       </c>
       <c r="L38" s="1">
         <f t="shared" si="0"/>
-        <v>123.48876404494382</v>
+        <v>21981</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="1"/>
@@ -3447,14 +4722,14 @@
       </c>
       <c r="N38" s="1">
         <f t="shared" si="2"/>
-        <v>1.9128223505542012</v>
+        <v>340.48237839864782</v>
       </c>
       <c r="O38">
         <f t="shared" si="3"/>
-        <v>6.204317410137084E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>196.57759282278334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -3472,7 +4747,7 @@
       </c>
       <c r="L39" s="1">
         <f t="shared" si="0"/>
-        <v>118.1685393258427</v>
+        <v>21034</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="1"/>
@@ -3480,14 +4755,14 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" si="2"/>
-        <v>1.9203816259695916</v>
+        <v>341.82792942258732</v>
       </c>
       <c r="O39">
         <f t="shared" si="3"/>
-        <v>6.2288362286536791E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>197.35444706866321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -3505,7 +4780,7 @@
       </c>
       <c r="L40" s="1">
         <f t="shared" si="0"/>
-        <v>115.64606741573034</v>
+        <v>20585</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="1"/>
@@ -3513,14 +4788,14 @@
       </c>
       <c r="N40" s="1">
         <f t="shared" si="2"/>
-        <v>1.4511528849625306</v>
+        <v>258.30521352333045</v>
       </c>
       <c r="O40">
         <f t="shared" si="3"/>
-        <v>4.7068736447663994E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>149.13258456077861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3538,7 +4813,7 @@
       </c>
       <c r="L41" s="1">
         <f t="shared" si="0"/>
-        <v>109.78089887640449</v>
+        <v>19541</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="1"/>
@@ -3546,14 +4821,14 @@
       </c>
       <c r="N41" s="1">
         <f t="shared" si="2"/>
-        <v>1.2505385365184052</v>
+        <v>222.59585950027611</v>
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>4.0561728128702358E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>128.51577940298054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -3571,7 +4846,7 @@
       </c>
       <c r="L42" s="1">
         <f t="shared" si="0"/>
-        <v>107.20786516853933</v>
+        <v>19083</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="1"/>
@@ -3579,14 +4854,14 @@
       </c>
       <c r="N42" s="1">
         <f t="shared" si="2"/>
-        <v>1.8111414774013579</v>
+        <v>322.38318297744172</v>
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>5.8745113456077002E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>186.12801747423435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -3604,7 +4879,7 @@
       </c>
       <c r="L43" s="1">
         <f t="shared" si="0"/>
-        <v>103.75280898876404</v>
+        <v>18468</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="1"/>
@@ -3612,14 +4887,14 @@
       </c>
       <c r="N43" s="1">
         <f t="shared" si="2"/>
-        <v>1.7844132905710834</v>
+        <v>317.62556572165283</v>
       </c>
       <c r="O43">
         <f t="shared" si="3"/>
-        <v>5.7878173800941625E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>183.38120587090344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3637,7 +4912,7 @@
       </c>
       <c r="L44" s="1">
         <f t="shared" si="0"/>
-        <v>99.353932584269657</v>
+        <v>17685</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="1"/>
@@ -3645,14 +4920,14 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" si="2"/>
-        <v>1.8100723427878482</v>
+        <v>322.19287701623699</v>
       </c>
       <c r="O44">
         <f t="shared" si="3"/>
-        <v>5.871043563827308E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>186.01814427630441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3670,7 +4945,7 @@
       </c>
       <c r="L45" s="1">
         <f t="shared" si="0"/>
-        <v>93.966292134831463</v>
+        <v>16726</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="1"/>
@@ -3678,14 +4953,14 @@
       </c>
       <c r="N45" s="1">
         <f t="shared" si="2"/>
-        <v>1.5077511580781016</v>
+        <v>268.37970613790208</v>
       </c>
       <c r="O45">
         <f t="shared" si="3"/>
-        <v>4.8904524549851797E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>154.94909558375042</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3703,7 +4978,7 @@
       </c>
       <c r="L46" s="1">
         <f t="shared" si="0"/>
-        <v>88.49438202247191</v>
+        <v>15752</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="1"/>
@@ -3711,14 +4986,14 @@
       </c>
       <c r="N46" s="1">
         <f t="shared" si="2"/>
-        <v>1.3962529737495784</v>
+        <v>248.53302932742494</v>
       </c>
       <c r="O46">
         <f t="shared" si="3"/>
-        <v>4.5288035407367111E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>143.49061138470196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3736,7 +5011,7 @@
       </c>
       <c r="L47" s="1">
         <f t="shared" si="0"/>
-        <v>84.477528089887642</v>
+        <v>15037</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="1"/>
@@ -3744,14 +5019,14 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" si="2"/>
-        <v>1.6840842294725302</v>
+        <v>299.76699284611038</v>
       </c>
       <c r="O47">
         <f t="shared" si="3"/>
-        <v>5.4623959731683646E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>173.07055401386646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3769,7 +5044,7 @@
       </c>
       <c r="L48" s="1">
         <f t="shared" si="0"/>
-        <v>79.17977528089888</v>
+        <v>14094</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="1"/>
@@ -3777,14 +5052,14 @@
       </c>
       <c r="N48" s="1">
         <f t="shared" si="2"/>
-        <v>1.4920675665087675</v>
+        <v>265.58802683856061</v>
       </c>
       <c r="O48">
         <f t="shared" si="3"/>
-        <v>4.8395820852412744E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>153.33731878878453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3802,7 +5077,7 @@
       </c>
       <c r="L49" s="1">
         <f t="shared" si="0"/>
-        <v>74.297752808988761</v>
+        <v>13225</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="1"/>
@@ -3810,14 +5085,14 @@
       </c>
       <c r="N49" s="1">
         <f t="shared" si="2"/>
-        <v>1.3703441832528218</v>
+        <v>243.92126461900227</v>
       </c>
       <c r="O49">
         <f t="shared" si="3"/>
-        <v>4.4447673206935651E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>140.8280077888549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3835,7 +5110,7 @@
       </c>
       <c r="L50" s="1">
         <f t="shared" si="0"/>
-        <v>69.061797752808985</v>
+        <v>12293</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="1"/>
@@ -3843,14 +5118,14 @@
       </c>
       <c r="N50" s="1">
         <f t="shared" si="2"/>
-        <v>1.5595487741357712</v>
+        <v>277.59968179616726</v>
       </c>
       <c r="O50">
         <f t="shared" si="3"/>
-        <v>5.0584601379867321E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>160.27225101197163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3868,7 +5143,7 @@
       </c>
       <c r="L51" s="1">
         <f t="shared" si="0"/>
-        <v>63.443820224719104</v>
+        <v>11293</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="1"/>
@@ -3876,14 +5151,14 @@
       </c>
       <c r="N51" s="1">
         <f t="shared" si="2"/>
-        <v>1.1516111696188198</v>
+        <v>204.98678819214993</v>
       </c>
       <c r="O51">
         <f t="shared" si="3"/>
-        <v>3.7352978583213791E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118.34917734305456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3901,7 +5176,7 @@
       </c>
       <c r="L52" s="1">
         <f t="shared" si="0"/>
-        <v>60.567415730337082</v>
+        <v>10781</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="1"/>
@@ -3909,14 +5184,14 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" si="2"/>
-        <v>1.3526877815349148</v>
+        <v>240.77842511321484</v>
       </c>
       <c r="O52">
         <f t="shared" si="3"/>
-        <v>4.3874980606668579E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139.01348855416873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3934,7 +5209,7 @@
       </c>
       <c r="L53" s="1">
         <f t="shared" si="0"/>
-        <v>55.483146067415731</v>
+        <v>9876</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="1"/>
@@ -3942,14 +5217,14 @@
       </c>
       <c r="N53" s="1">
         <f t="shared" si="2"/>
-        <v>1.1848206721902421</v>
+        <v>210.89807964986309</v>
       </c>
       <c r="O53">
         <f t="shared" si="3"/>
-        <v>3.8430142361262336E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>121.7620630574236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3967,7 +5242,7 @@
       </c>
       <c r="L54" s="1">
         <f t="shared" si="0"/>
-        <v>50.758426966292134</v>
+        <v>9035</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="1"/>
@@ -3975,14 +5250,14 @@
       </c>
       <c r="N54" s="1">
         <f t="shared" si="2"/>
-        <v>1.0499695400402882</v>
+        <v>186.89457812717129</v>
       </c>
       <c r="O54">
         <f t="shared" si="3"/>
-        <v>3.4056190819279097E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>107.9036349918039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -4000,7 +5275,7 @@
       </c>
       <c r="L55" s="1">
         <f t="shared" si="0"/>
-        <v>47.674157303370784</v>
+        <v>8486</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="1"/>
@@ -4008,14 +5283,14 @@
       </c>
       <c r="N55" s="1">
         <f t="shared" si="2"/>
-        <v>1.1219885512499903</v>
+        <v>199.71396212249826</v>
       </c>
       <c r="O55">
         <f t="shared" si="3"/>
-        <v>3.6392156859093266E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115.3049097923511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -4033,7 +5308,7 @@
       </c>
       <c r="L56" s="1">
         <f t="shared" si="0"/>
-        <v>43.780898876404493</v>
+        <v>7793</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="1"/>
@@ -4041,14 +5316,14 @@
       </c>
       <c r="N56" s="1">
         <f t="shared" si="2"/>
-        <v>1.0855484783669593</v>
+        <v>193.22762914931877</v>
       </c>
       <c r="O56">
         <f t="shared" si="3"/>
-        <v>3.521020821368273E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>111.56002370423238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -4066,7 +5341,7 @@
       </c>
       <c r="L57" s="1">
         <f t="shared" si="0"/>
-        <v>39.870786516853933</v>
+        <v>7097</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="1"/>
@@ -4074,14 +5349,14 @@
       </c>
       <c r="N57" s="1">
         <f t="shared" si="2"/>
-        <v>1.2765826400844678</v>
+        <v>227.23170993503527</v>
       </c>
       <c r="O57">
         <f t="shared" si="3"/>
-        <v>4.1406479263796101E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>131.19228889941158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -4099,7 +5374,7 @@
       </c>
       <c r="L58" s="1">
         <f t="shared" si="0"/>
-        <v>36.646067415730336</v>
+        <v>6523</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="1"/>
@@ -4107,14 +5382,14 @@
       </c>
       <c r="N58" s="1">
         <f t="shared" si="2"/>
-        <v>1.18042941558762</v>
+        <v>210.11643597459638</v>
       </c>
       <c r="O58">
         <f t="shared" si="3"/>
-        <v>3.8287710160048601E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>121.310780871098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4132,7 +5407,7 @@
       </c>
       <c r="L59" s="1">
         <f t="shared" si="0"/>
-        <v>32.415730337078649</v>
+        <v>5770</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" si="1"/>
@@ -4140,14 +5415,14 @@
       </c>
       <c r="N59" s="1">
         <f t="shared" si="2"/>
-        <v>1.0846286107060141</v>
+        <v>193.06389270567053</v>
       </c>
       <c r="O59">
         <f t="shared" si="3"/>
-        <v>3.5180371930443096E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>111.4654904244159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4165,7 +5440,7 @@
       </c>
       <c r="L60" s="1">
         <f t="shared" si="0"/>
-        <v>29.567415730337078</v>
+        <v>5263</v>
       </c>
       <c r="M60" s="1">
         <f t="shared" si="1"/>
@@ -4173,14 +5448,14 @@
       </c>
       <c r="N60" s="1">
         <f t="shared" si="2"/>
-        <v>1.0326119312601103</v>
+        <v>183.80492376429964</v>
       </c>
       <c r="O60">
         <f t="shared" si="3"/>
-        <v>3.3493189689968767E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>106.11982221369705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -4198,7 +5473,7 @@
       </c>
       <c r="L61" s="1">
         <f t="shared" si="0"/>
-        <v>26.331460674157302</v>
+        <v>4687</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" si="1"/>
@@ -4206,14 +5481,14 @@
       </c>
       <c r="N61" s="1">
         <f t="shared" si="2"/>
-        <v>0.81442429830906893</v>
+        <v>144.96752509901427</v>
       </c>
       <c r="O61">
         <f t="shared" si="3"/>
-        <v>2.6416184711422082E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>83.697039639669725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -4231,7 +5506,7 @@
       </c>
       <c r="L62" s="1">
         <f t="shared" si="0"/>
-        <v>23.55056179775281</v>
+        <v>4192</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="1"/>
@@ -4239,14 +5514,14 @@
       </c>
       <c r="N62" s="1">
         <f t="shared" si="2"/>
-        <v>0.77905772768309323</v>
+        <v>138.67227552759059</v>
       </c>
       <c r="O62">
         <f t="shared" si="3"/>
-        <v>2.526905555011753E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80.062475604992386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -4264,7 +5539,7 @@
       </c>
       <c r="L63" s="1">
         <f t="shared" si="0"/>
-        <v>21.398876404494381</v>
+        <v>3809</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" si="1"/>
@@ -4272,14 +5547,14 @@
       </c>
       <c r="N63" s="1">
         <f t="shared" si="2"/>
-        <v>0.85335796505422212</v>
+        <v>151.89771777965154</v>
       </c>
       <c r="O63">
         <f t="shared" si="3"/>
-        <v>2.7679014092088002E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87.698188249371626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -4297,7 +5572,7 @@
       </c>
       <c r="L64" s="1">
         <f t="shared" si="0"/>
-        <v>18.820224719101123</v>
+        <v>3350</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="1"/>
@@ -4305,14 +5580,14 @@
       </c>
       <c r="N64" s="1">
         <f t="shared" si="2"/>
-        <v>0.84758258964256827</v>
+        <v>150.86970095637716</v>
       </c>
       <c r="O64">
         <f t="shared" si="3"/>
-        <v>2.7491687432054882E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87.104662459722704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -4330,7 +5605,7 @@
       </c>
       <c r="L65" s="1">
         <f t="shared" si="0"/>
-        <v>16.730337078651687</v>
+        <v>2978</v>
       </c>
       <c r="M65" s="1">
         <f t="shared" si="1"/>
@@ -4338,14 +5613,14 @@
       </c>
       <c r="N65" s="1">
         <f t="shared" si="2"/>
-        <v>0.71975187081683489</v>
+        <v>128.11583300539661</v>
       </c>
       <c r="O65">
         <f t="shared" si="3"/>
-        <v>2.3345445863249235E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73.967710673118873</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -4363,7 +5638,7 @@
       </c>
       <c r="L66" s="1">
         <f t="shared" si="0"/>
-        <v>15.078651685393259</v>
+        <v>2684</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="1"/>
@@ -4371,14 +5646,14 @@
       </c>
       <c r="N66" s="1">
         <f t="shared" si="2"/>
-        <v>0.54474107197875954</v>
+        <v>96.963910812219197</v>
       </c>
       <c r="O66">
         <f t="shared" si="3"/>
-        <v>1.7668899131774278E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55.982140009113621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -4396,7 +5671,7 @@
       </c>
       <c r="L67" s="1">
         <f t="shared" si="0"/>
-        <v>12.55056179775281</v>
+        <v>2234</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="1"/>
@@ -4404,14 +5679,14 @@
       </c>
       <c r="N67" s="1">
         <f t="shared" si="2"/>
-        <v>0.63925738330042881</v>
+        <v>113.78781422747633</v>
       </c>
       <c r="O67">
         <f t="shared" si="3"/>
-        <v>2.0734574288199907E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65.695425174732591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -4428,23 +5703,23 @@
         <v>461</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" ref="L68:L102" si="4">SUM(B68:K68)/178</f>
-        <v>11.314606741573034</v>
+        <f t="shared" ref="L68:L102" si="4">SUM(B68:K68)</f>
+        <v>2014</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" ref="M68:M102" si="5">AVERAGE(B68:K68)</f>
         <v>503.5</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" ref="N68:N102" si="6">STDEV(B68:K68)/178</f>
-        <v>0.44893464299487129</v>
+        <f t="shared" ref="N68:N102" si="6">STDEV(B68:K68)</f>
+        <v>79.910366453087093</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O102" si="7">N68/SQRT(3)/178</f>
-        <v>1.4561378482114468E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O68:O102" si="7">N68/SQRT(3)</f>
+        <v>46.136271582731474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -4462,7 +5737,7 @@
       </c>
       <c r="L69" s="1">
         <f t="shared" si="4"/>
-        <v>9.6853932584269664</v>
+        <v>1724</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" si="5"/>
@@ -4470,14 +5745,14 @@
       </c>
       <c r="N69" s="1">
         <f t="shared" si="6"/>
-        <v>0.46857659791215434</v>
+        <v>83.406634428363475</v>
       </c>
       <c r="O69">
         <f t="shared" si="7"/>
-        <v>1.5198473311266369E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48.154842839416361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -4495,7 +5770,7 @@
       </c>
       <c r="L70" s="1">
         <f t="shared" si="4"/>
-        <v>8.786516853932584</v>
+        <v>1564</v>
       </c>
       <c r="M70" s="1">
         <f t="shared" si="5"/>
@@ -4503,14 +5778,14 @@
       </c>
       <c r="N70" s="1">
         <f t="shared" si="6"/>
-        <v>0.45112044718842093</v>
+        <v>80.299439599538928</v>
       </c>
       <c r="O70">
         <f t="shared" si="7"/>
-        <v>1.4632275933774111E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46.360903068569897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -4528,7 +5803,7 @@
       </c>
       <c r="L71" s="1">
         <f t="shared" si="4"/>
-        <v>7.9438202247191008</v>
+        <v>1414</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" si="5"/>
@@ -4536,14 +5811,14 @@
       </c>
       <c r="N71" s="1">
         <f t="shared" si="6"/>
-        <v>0.44008287505734556</v>
+        <v>78.33475176020751</v>
       </c>
       <c r="O71">
         <f t="shared" si="7"/>
-        <v>1.4274267774163087E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>45.226590015658317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -4561,7 +5836,7 @@
       </c>
       <c r="L72" s="1">
         <f t="shared" si="4"/>
-        <v>6.617977528089888</v>
+        <v>1178</v>
       </c>
       <c r="M72" s="1">
         <f t="shared" si="5"/>
@@ -4569,14 +5844,14 @@
       </c>
       <c r="N72" s="1">
         <f t="shared" si="6"/>
-        <v>0.39096441667260912</v>
+        <v>69.591666167724426</v>
       </c>
       <c r="O72">
         <f t="shared" si="7"/>
-        <v>1.268109051738741E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40.17876719529027</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -4594,7 +5869,7 @@
       </c>
       <c r="L73" s="1">
         <f t="shared" si="4"/>
-        <v>5.415730337078652</v>
+        <v>964</v>
       </c>
       <c r="M73" s="1">
         <f t="shared" si="5"/>
@@ -4602,14 +5877,14 @@
       </c>
       <c r="N73" s="1">
         <f t="shared" si="6"/>
-        <v>0.33321758710869476</v>
+        <v>59.312730505347666</v>
       </c>
       <c r="O73">
         <f t="shared" si="7"/>
-        <v>1.0808048517748456E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34.244220923634202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -4627,7 +5902,7 @@
       </c>
       <c r="L74" s="1">
         <f t="shared" si="4"/>
-        <v>5.1011235955056176</v>
+        <v>908</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" si="5"/>
@@ -4635,14 +5910,14 @@
       </c>
       <c r="N74" s="1">
         <f t="shared" si="6"/>
-        <v>0.38380833950846432</v>
+        <v>68.317884432506645</v>
       </c>
       <c r="O74">
         <f t="shared" si="7"/>
-        <v>1.244898023215928E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>39.443348967573456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -4660,7 +5935,7 @@
       </c>
       <c r="L75" s="1">
         <f t="shared" si="4"/>
-        <v>4.2696629213483144</v>
+        <v>760</v>
       </c>
       <c r="M75" s="1">
         <f t="shared" si="5"/>
@@ -4668,14 +5943,14 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" si="6"/>
-        <v>0.32047102689779017</v>
+        <v>57.043842787806646</v>
       </c>
       <c r="O75">
         <f t="shared" si="7"/>
-        <v>1.0394608631849156E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32.934277989150864</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -4693,7 +5968,7 @@
       </c>
       <c r="L76" s="1">
         <f t="shared" si="4"/>
-        <v>3.5898876404494384</v>
+        <v>639</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" si="5"/>
@@ -4701,14 +5976,14 @@
       </c>
       <c r="N76" s="1">
         <f t="shared" si="6"/>
-        <v>0.33370266329695114</v>
+        <v>59.399074066857303</v>
       </c>
       <c r="O76">
         <f t="shared" si="7"/>
-        <v>1.0823782162010663E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34.294071402114582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -4726,7 +6001,7 @@
       </c>
       <c r="L77" s="1">
         <f t="shared" si="4"/>
-        <v>3.1235955056179776</v>
+        <v>556</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" si="5"/>
@@ -4734,14 +6009,14 @@
       </c>
       <c r="N77" s="1">
         <f t="shared" si="6"/>
-        <v>0.21441743125793775</v>
+        <v>38.166302763912917</v>
       </c>
       <c r="O77">
         <f t="shared" si="7"/>
-        <v>6.954716946950475E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22.035325174717883</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -4759,7 +6034,7 @@
       </c>
       <c r="L78" s="1">
         <f t="shared" si="4"/>
-        <v>3.0337078651685392</v>
+        <v>540</v>
       </c>
       <c r="M78" s="1">
         <f t="shared" si="5"/>
@@ -4767,14 +6042,14 @@
       </c>
       <c r="N78" s="1">
         <f t="shared" si="6"/>
-        <v>0.23004000208354961</v>
+        <v>40.947120370871829</v>
       </c>
       <c r="O78">
         <f t="shared" si="7"/>
-        <v>7.4614414116471589E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23.640830968662861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -4792,7 +6067,7 @@
       </c>
       <c r="L79" s="1">
         <f t="shared" si="4"/>
-        <v>2.1629213483146068</v>
+        <v>385</v>
       </c>
       <c r="M79" s="1">
         <f t="shared" si="5"/>
@@ -4800,14 +6075,14 @@
       </c>
       <c r="N79" s="1">
         <f t="shared" si="6"/>
-        <v>0.20942199668862399</v>
+        <v>37.277115410575071</v>
       </c>
       <c r="O79">
         <f t="shared" si="7"/>
-        <v>6.7926879866520213E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21.521952616908266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -4825,7 +6100,7 @@
       </c>
       <c r="L80" s="1">
         <f t="shared" si="4"/>
-        <v>1.949438202247191</v>
+        <v>347</v>
       </c>
       <c r="M80" s="1">
         <f t="shared" si="5"/>
@@ -4833,14 +6108,14 @@
       </c>
       <c r="N80" s="1">
         <f t="shared" si="6"/>
-        <v>0.16483922175101318</v>
+        <v>29.341381471680343</v>
       </c>
       <c r="O80">
         <f t="shared" si="7"/>
-        <v>5.3466274747728014E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16.940254491070146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -4858,7 +6133,7 @@
       </c>
       <c r="L81" s="1">
         <f t="shared" si="4"/>
-        <v>1.9606741573033708</v>
+        <v>349</v>
       </c>
       <c r="M81" s="1">
         <f t="shared" si="5"/>
@@ -4866,14 +6141,14 @@
       </c>
       <c r="N81" s="1">
         <f t="shared" si="6"/>
-        <v>0.19816813510626147</v>
+        <v>35.273928048914541</v>
       </c>
       <c r="O81">
         <f t="shared" si="7"/>
-        <v>6.4276643903598977E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20.365411854416301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -4891,7 +6166,7 @@
       </c>
       <c r="L82" s="1">
         <f t="shared" si="4"/>
-        <v>1.449438202247191</v>
+        <v>258</v>
       </c>
       <c r="M82" s="1">
         <f t="shared" si="5"/>
@@ -4899,14 +6174,14 @@
       </c>
       <c r="N82" s="1">
         <f t="shared" si="6"/>
-        <v>0.11481401540051933</v>
+        <v>20.436894741292441</v>
       </c>
       <c r="O82">
         <f t="shared" si="7"/>
-        <v>3.7240394774287457E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.799246680285238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>80</v>
       </c>
@@ -4924,7 +6199,7 @@
       </c>
       <c r="L83" s="1">
         <f t="shared" si="4"/>
-        <v>1.0898876404494382</v>
+        <v>194</v>
       </c>
       <c r="M83" s="1">
         <f t="shared" si="5"/>
@@ -4932,14 +6207,14 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" si="6"/>
-        <v>0.13833616117949502</v>
+        <v>24.623836689950114</v>
       </c>
       <c r="O83">
         <f t="shared" si="7"/>
-        <v>4.4869898817775792E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.216578741424083</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -4957,7 +6232,7 @@
       </c>
       <c r="L84" s="1">
         <f t="shared" si="4"/>
-        <v>0.8820224719101124</v>
+        <v>157</v>
       </c>
       <c r="M84" s="1">
         <f t="shared" si="5"/>
@@ -4965,14 +6240,14 @@
       </c>
       <c r="N84" s="1">
         <f t="shared" si="6"/>
-        <v>0.10074575687596331</v>
+        <v>17.93274472392147</v>
       </c>
       <c r="O84">
         <f t="shared" si="7"/>
-        <v>3.2677297669691017E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.353474993664902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>82</v>
       </c>
@@ -4990,7 +6265,7 @@
       </c>
       <c r="L85" s="1">
         <f t="shared" si="4"/>
-        <v>0.9438202247191011</v>
+        <v>168</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" si="5"/>
@@ -4998,14 +6273,14 @@
       </c>
       <c r="N85" s="1">
         <f t="shared" si="6"/>
-        <v>9.1970255863735403E-2</v>
+        <v>16.370705543744901</v>
       </c>
       <c r="O85">
         <f t="shared" si="7"/>
-        <v>2.9830928078857525E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4516312525052175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>83</v>
       </c>
@@ -5023,7 +6298,7 @@
       </c>
       <c r="L86" s="1">
         <f t="shared" si="4"/>
-        <v>0.7584269662921348</v>
+        <v>135</v>
       </c>
       <c r="M86" s="1">
         <f t="shared" si="5"/>
@@ -5031,14 +6306,14 @@
       </c>
       <c r="N86" s="1">
         <f t="shared" si="6"/>
-        <v>0.10593773812819909</v>
+        <v>18.85691738681944</v>
       </c>
       <c r="O86">
         <f t="shared" si="7"/>
-        <v>3.4361337991941477E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.887046329366738</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -5056,7 +6331,7 @@
       </c>
       <c r="L87" s="1">
         <f t="shared" si="4"/>
-        <v>0.48314606741573035</v>
+        <v>86</v>
       </c>
       <c r="M87" s="1">
         <f t="shared" si="5"/>
@@ -5064,14 +6339,14 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" si="6"/>
-        <v>5.4757271600050353E-2</v>
+        <v>9.7467943448089631</v>
       </c>
       <c r="O87">
         <f t="shared" si="7"/>
-        <v>1.7760744662010408E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.6273143387113773</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>85</v>
       </c>
@@ -5089,7 +6364,7 @@
       </c>
       <c r="L88" s="1">
         <f t="shared" si="4"/>
-        <v>0.38764044943820225</v>
+        <v>69</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="5"/>
@@ -5097,14 +6372,14 @@
       </c>
       <c r="N88" s="1">
         <f t="shared" si="6"/>
-        <v>4.5264539195774604E-2</v>
+        <v>8.05708797684788</v>
       </c>
       <c r="O88">
         <f t="shared" si="7"/>
-        <v>1.4681738140126313E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.651761912317621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -5122,7 +6397,7 @@
       </c>
       <c r="L89" s="1">
         <f t="shared" si="4"/>
-        <v>0.30337078651685395</v>
+        <v>54</v>
       </c>
       <c r="M89" s="1">
         <f t="shared" si="5"/>
@@ -5130,14 +6405,14 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" si="6"/>
-        <v>4.9083679483450021E-2</v>
+        <v>8.736894948054104</v>
       </c>
       <c r="O89">
         <f t="shared" si="7"/>
-        <v>1.5920491889093923E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.0442486501405188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -5155,7 +6430,7 @@
       </c>
       <c r="L90" s="1">
         <f t="shared" si="4"/>
-        <v>0.2752808988764045</v>
+        <v>49</v>
       </c>
       <c r="M90" s="1">
         <f t="shared" si="5"/>
@@ -5163,14 +6438,14 @@
       </c>
       <c r="N90" s="1">
         <f t="shared" si="6"/>
-        <v>3.5046755191409928E-2</v>
+        <v>6.2383224240709669</v>
       </c>
       <c r="O90">
         <f t="shared" si="7"/>
-        <v>1.1367558170777213E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.6016971308290517</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>88</v>
       </c>
@@ -5188,7 +6463,7 @@
       </c>
       <c r="L91" s="1">
         <f t="shared" si="4"/>
-        <v>0.1404494382022472</v>
+        <v>25</v>
       </c>
       <c r="M91" s="1">
         <f t="shared" si="5"/>
@@ -5196,14 +6471,14 @@
       </c>
       <c r="N91" s="1">
         <f t="shared" si="6"/>
-        <v>1.2457054958473849E-2</v>
+        <v>2.2173557826083452</v>
       </c>
       <c r="O91">
         <f t="shared" si="7"/>
-        <v>4.0404966480813703E-5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2801909579781015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -5221,7 +6496,7 @@
       </c>
       <c r="L92" s="1">
         <f t="shared" si="4"/>
-        <v>9.5505617977528087E-2</v>
+        <v>17</v>
       </c>
       <c r="M92" s="1">
         <f t="shared" si="5"/>
@@ -5229,14 +6504,14 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" si="6"/>
-        <v>1.9662921348314606E-2</v>
+        <v>3.5</v>
       </c>
       <c r="O92">
         <f t="shared" si="7"/>
-        <v>6.3777488390471222E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0207259421636903</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -5254,7 +6529,7 @@
       </c>
       <c r="L93" s="1">
         <f t="shared" si="4"/>
-        <v>8.4269662921348312E-2</v>
+        <v>15</v>
       </c>
       <c r="M93" s="1">
         <f t="shared" si="5"/>
@@ -5262,14 +6537,14 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" si="6"/>
-        <v>1.9662921348314606E-2</v>
+        <v>3.5</v>
       </c>
       <c r="O93">
         <f t="shared" si="7"/>
-        <v>6.3777488390471222E-5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0207259421636903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -5287,7 +6562,7 @@
       </c>
       <c r="L94" s="1">
         <f t="shared" si="4"/>
-        <v>3.9325842696629212E-2</v>
+        <v>7</v>
       </c>
       <c r="M94" s="1">
         <f t="shared" si="5"/>
@@ -5295,14 +6570,14 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" si="6"/>
-        <v>9.5945231891007478E-3</v>
+        <v>1.707825127659933</v>
       </c>
       <c r="O94">
         <f t="shared" si="7"/>
-        <v>3.1120227786367548E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.98601329718326935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>92</v>
       </c>
@@ -5320,7 +6595,7 @@
       </c>
       <c r="L95" s="1">
         <f t="shared" si="4"/>
-        <v>2.247191011235955E-2</v>
+        <v>4</v>
       </c>
       <c r="M95" s="1">
         <f t="shared" si="5"/>
@@ -5328,14 +6603,14 @@
       </c>
       <c r="N95" s="1">
         <f t="shared" si="6"/>
-        <v>4.5870594434141909E-3</v>
+        <v>0.81649658092772603</v>
       </c>
       <c r="O95">
         <f t="shared" si="7"/>
-        <v>1.4878314631707854E-5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.47140452079103173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>93</v>
       </c>
@@ -5353,7 +6628,7 @@
       </c>
       <c r="L96" s="1">
         <f t="shared" si="4"/>
-        <v>6.1797752808988762E-2</v>
+        <v>11</v>
       </c>
       <c r="M96" s="1">
         <f t="shared" si="5"/>
@@ -5361,14 +6636,14 @@
       </c>
       <c r="N96" s="1">
         <f t="shared" si="6"/>
-        <v>1.4044943820224719E-2</v>
+        <v>2.5</v>
       </c>
       <c r="O96">
         <f t="shared" si="7"/>
-        <v>4.5555348850336584E-5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4433756729740645</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>94</v>
       </c>
@@ -5386,7 +6661,7 @@
       </c>
       <c r="L97" s="1">
         <f t="shared" si="4"/>
-        <v>2.247191011235955E-2</v>
+        <v>4</v>
       </c>
       <c r="M97" s="1">
         <f t="shared" si="5"/>
@@ -5394,14 +6669,14 @@
       </c>
       <c r="N97" s="1">
         <f t="shared" si="6"/>
-        <v>4.5870594434141909E-3</v>
+        <v>0.81649658092772603</v>
       </c>
       <c r="O97">
         <f t="shared" si="7"/>
-        <v>1.4878314631707854E-5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.47140452079103173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>95</v>
       </c>
@@ -5434,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>96</v>
       </c>
@@ -5452,7 +6727,7 @@
       </c>
       <c r="L99" s="1">
         <f t="shared" si="4"/>
-        <v>5.6179775280898875E-3</v>
+        <v>1</v>
       </c>
       <c r="M99" s="1">
         <f t="shared" si="5"/>
@@ -5460,14 +6735,14 @@
       </c>
       <c r="N99" s="1">
         <f t="shared" si="6"/>
-        <v>2.8089887640449437E-3</v>
+        <v>0.5</v>
       </c>
       <c r="O99">
         <f t="shared" si="7"/>
-        <v>9.1110697700673172E-6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.28867513459481292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -5500,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -5533,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -5566,28 +6841,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="5" t="s">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
         <v>0</v>
       </c>
@@ -5614,7 +6889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -5631,23 +6906,23 @@
         <v>4.60425486415624</v>
       </c>
       <c r="L110" s="1">
-        <f>SUM(B110:K110)/178</f>
-        <v>-8.4814128643843439E-2</v>
+        <f>SUM(B110:K110)</f>
+        <v>-15.096914898604133</v>
       </c>
       <c r="M110" s="1">
         <f>AVERAGE(B110:K110)</f>
         <v>-3.7742287246510333</v>
       </c>
       <c r="N110" s="1">
-        <f>STDEV(B110:K110)/178</f>
-        <v>5.5892779589299953E-2</v>
+        <f>STDEV(B110:K110)</f>
+        <v>9.9489147668953919</v>
       </c>
       <c r="O110">
-        <f>N110/SQRT(3)/178</f>
-        <v>1.8129051315527388E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <f>N110/SQRT(3)</f>
+        <v>5.7440086188116979</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -5664,23 +6939,23 @@
         <v>-2.60868302360177</v>
       </c>
       <c r="L111" s="1">
-        <f t="shared" ref="L111:L174" si="8">SUM(B111:K111)/178</f>
-        <v>-8.0285849465643253E-2</v>
+        <f t="shared" ref="L111:L174" si="8">SUM(B111:K111)</f>
+        <v>-14.290881204884499</v>
       </c>
       <c r="M111" s="1">
         <f t="shared" ref="M111:M174" si="9">AVERAGE(B111:K111)</f>
         <v>-3.5727203012211248</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" ref="N111:N174" si="10">STDEV(B111:K111)/178</f>
-        <v>2.6040128436129999E-2</v>
+        <f t="shared" ref="N111:N174" si="10">STDEV(B111:K111)</f>
+        <v>4.6351428616311399</v>
       </c>
       <c r="O111">
-        <f t="shared" ref="O111:O174" si="11">N111/SQRT(3)/178</f>
-        <v>8.4462220013101601E-5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O111:O174" si="11">N111/SQRT(3)</f>
+        <v>2.6761009788951111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2</v>
       </c>
@@ -5698,7 +6973,7 @@
       </c>
       <c r="L112" s="1">
         <f t="shared" si="8"/>
-        <v>0.12171277043859605</v>
+        <v>21.664873138070096</v>
       </c>
       <c r="M112" s="1">
         <f t="shared" si="9"/>
@@ -5706,14 +6981,14 @@
       </c>
       <c r="N112" s="1">
         <f t="shared" si="10"/>
-        <v>2.271327662392408E-2</v>
+        <v>4.0429632390584862</v>
       </c>
       <c r="O112">
         <f t="shared" si="11"/>
-        <v>7.3671440297758437E-5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.3342059143941785</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>3</v>
       </c>
@@ -5731,7 +7006,7 @@
       </c>
       <c r="L113" s="1">
         <f t="shared" si="8"/>
-        <v>-0.1410695559847471</v>
+        <v>-25.110380965284982</v>
       </c>
       <c r="M113" s="1">
         <f t="shared" si="9"/>
@@ -5739,14 +7014,14 @@
       </c>
       <c r="N113" s="1">
         <f t="shared" si="10"/>
-        <v>1.9528288663782652E-2</v>
+        <v>3.4760353821533121</v>
       </c>
       <c r="O113">
         <f t="shared" si="11"/>
-        <v>6.3340801780042871E-5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0068899635988786</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>4</v>
       </c>
@@ -5764,7 +7039,7 @@
       </c>
       <c r="L114" s="1">
         <f t="shared" si="8"/>
-        <v>-0.11076636148846844</v>
+        <v>-19.716412344947383</v>
       </c>
       <c r="M114" s="1">
         <f t="shared" si="9"/>
@@ -5772,14 +7047,14 @@
       </c>
       <c r="N114" s="1">
         <f t="shared" si="10"/>
-        <v>3.1116772884766331E-2</v>
+        <v>5.5387855734884068</v>
       </c>
       <c r="O114">
         <f t="shared" si="11"/>
-        <v>1.0092852360299039E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1978193418371474</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>5</v>
       </c>
@@ -5797,7 +7072,7 @@
       </c>
       <c r="L115" s="1">
         <f t="shared" si="8"/>
-        <v>-3.944936158721573E-2</v>
+        <v>-7.0219863625243999</v>
       </c>
       <c r="M115" s="1">
         <f t="shared" si="9"/>
@@ -5805,14 +7080,14 @@
       </c>
       <c r="N115" s="1">
         <f t="shared" si="10"/>
-        <v>9.0587275428341954E-2</v>
+        <v>16.124535026244867</v>
       </c>
       <c r="O115">
         <f t="shared" si="11"/>
-        <v>2.9382352726802251E-4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3095046379600248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>6</v>
       </c>
@@ -5830,7 +7105,7 @@
       </c>
       <c r="L116" s="1">
         <f t="shared" si="8"/>
-        <v>-0.1179729711128337</v>
+        <v>-20.999188858084398</v>
       </c>
       <c r="M116" s="1">
         <f t="shared" si="9"/>
@@ -5838,14 +7113,14 @@
       </c>
       <c r="N116" s="1">
         <f t="shared" si="10"/>
-        <v>5.1733936587573526E-2</v>
+        <v>9.2086407125880871</v>
       </c>
       <c r="O116">
         <f t="shared" si="11"/>
-        <v>1.6780113603974498E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.3166111942832792</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>7</v>
       </c>
@@ -5863,7 +7138,7 @@
       </c>
       <c r="L117" s="1">
         <f t="shared" si="8"/>
-        <v>1.940256273413208E-2</v>
+        <v>3.4536561666755103</v>
       </c>
       <c r="M117" s="1">
         <f t="shared" si="9"/>
@@ -5871,14 +7146,14 @@
       </c>
       <c r="N117" s="1">
         <f t="shared" si="10"/>
-        <v>2.9945156296017648E-2</v>
+        <v>5.3302378206911412</v>
       </c>
       <c r="O117">
         <f t="shared" si="11"/>
-        <v>9.712833735073713E-5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.0774142406207545</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>8</v>
       </c>
@@ -5896,7 +7171,7 @@
       </c>
       <c r="L118" s="1">
         <f t="shared" si="8"/>
-        <v>0.24685667120338706</v>
+        <v>43.940487474202897</v>
       </c>
       <c r="M118" s="1">
         <f t="shared" si="9"/>
@@ -5904,14 +7179,14 @@
       </c>
       <c r="N118" s="1">
         <f t="shared" si="10"/>
-        <v>4.039957930458974E-2</v>
+        <v>7.1911251162169743</v>
       </c>
       <c r="O118">
         <f t="shared" si="11"/>
-        <v>1.3103768531827262E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.151798021624149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>9</v>
       </c>
@@ -5929,7 +7204,7 @@
       </c>
       <c r="L119" s="1">
         <f t="shared" si="8"/>
-        <v>1.5669136651990445</v>
+        <v>278.91063240542991</v>
       </c>
       <c r="M119" s="1">
         <f t="shared" si="9"/>
@@ -5937,14 +7212,14 @@
       </c>
       <c r="N119" s="1">
         <f t="shared" si="10"/>
-        <v>6.8148770508391382E-2</v>
+        <v>12.130481150493665</v>
       </c>
       <c r="O119">
         <f t="shared" si="11"/>
-        <v>2.210433202132685E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.0035365576371991</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>10</v>
       </c>
@@ -5962,7 +7237,7 @@
       </c>
       <c r="L120" s="1">
         <f t="shared" si="8"/>
-        <v>3.3970932255635007</v>
+        <v>604.68259415030309</v>
       </c>
       <c r="M120" s="1">
         <f t="shared" si="9"/>
@@ -5970,14 +7245,14 @@
       </c>
       <c r="N120" s="1">
         <f t="shared" si="10"/>
-        <v>4.1147088492927857E-2</v>
+        <v>7.3241817517411585</v>
       </c>
       <c r="O120">
         <f t="shared" si="11"/>
-        <v>1.3346226189753512E-4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.2286183059615032</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>11</v>
       </c>
@@ -5995,7 +7270,7 @@
       </c>
       <c r="L121" s="1">
         <f t="shared" si="8"/>
-        <v>6.6992835118696474</v>
+        <v>1192.4724651127972</v>
       </c>
       <c r="M121" s="1">
         <f t="shared" si="9"/>
@@ -6003,14 +7278,14 @@
       </c>
       <c r="N121" s="1">
         <f t="shared" si="10"/>
-        <v>8.7198736074800123E-2</v>
+        <v>15.521375021314423</v>
       </c>
       <c r="O121">
         <f t="shared" si="11"/>
-        <v>2.828326614931516E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.9612700467490161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>12</v>
       </c>
@@ -6028,7 +7303,7 @@
       </c>
       <c r="L122" s="1">
         <f t="shared" si="8"/>
-        <v>11.370794532757758</v>
+        <v>2024.001426830881</v>
       </c>
       <c r="M122" s="1">
         <f t="shared" si="9"/>
@@ -6036,14 +7311,14 @@
       </c>
       <c r="N122" s="1">
         <f t="shared" si="10"/>
-        <v>0.15411219789043532</v>
+        <v>27.431971224497488</v>
       </c>
       <c r="O122">
         <f t="shared" si="11"/>
-        <v>4.998692075137512E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.837855970865693</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>13</v>
       </c>
@@ -6061,7 +7336,7 @@
       </c>
       <c r="L123" s="1">
         <f t="shared" si="8"/>
-        <v>17.709771065899485</v>
+        <v>3152.3392497301083</v>
       </c>
       <c r="M123" s="1">
         <f t="shared" si="9"/>
@@ -6069,14 +7344,14 @@
       </c>
       <c r="N123" s="1">
         <f t="shared" si="10"/>
-        <v>0.31691712171071451</v>
+        <v>56.411247664507187</v>
       </c>
       <c r="O123">
         <f t="shared" si="11"/>
-        <v>1.027933626575744E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32.569049024425873</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>14</v>
       </c>
@@ -6094,7 +7369,7 @@
       </c>
       <c r="L124" s="1">
         <f t="shared" si="8"/>
-        <v>24.510495990849041</v>
+        <v>4362.8682863711292</v>
       </c>
       <c r="M124" s="1">
         <f t="shared" si="9"/>
@@ -6102,14 +7377,14 @@
       </c>
       <c r="N124" s="1">
         <f t="shared" si="10"/>
-        <v>0.1972218182762262</v>
+        <v>35.105483653168264</v>
       </c>
       <c r="O124">
         <f t="shared" si="11"/>
-        <v>6.3969702175194752E-4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20.268160437188705</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>15</v>
       </c>
@@ -6127,7 +7402,7 @@
       </c>
       <c r="L125" s="1">
         <f t="shared" si="8"/>
-        <v>32.32520734594101</v>
+        <v>5753.8869075775001</v>
       </c>
       <c r="M125" s="1">
         <f t="shared" si="9"/>
@@ -6135,14 +7410,14 @@
       </c>
       <c r="N125" s="1">
         <f t="shared" si="10"/>
-        <v>0.42557138362095775</v>
+        <v>75.751706284530485</v>
       </c>
       <c r="O125">
         <f t="shared" si="11"/>
-        <v>1.3803581623200083E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43.735268014947145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>16</v>
       </c>
@@ -6160,7 +7435,7 @@
       </c>
       <c r="L126" s="1">
         <f t="shared" si="8"/>
-        <v>39.87320806739028</v>
+        <v>7097.4310359954698</v>
       </c>
       <c r="M126" s="1">
         <f t="shared" si="9"/>
@@ -6168,14 +7443,14 @@
       </c>
       <c r="N126" s="1">
         <f t="shared" si="10"/>
-        <v>0.465076914922117</v>
+        <v>82.783690856136829</v>
       </c>
       <c r="O126">
         <f t="shared" si="11"/>
-        <v>1.5084959664278929E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47.795186200301359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>17</v>
       </c>
@@ -6193,7 +7468,7 @@
       </c>
       <c r="L127" s="1">
         <f t="shared" si="8"/>
-        <v>50.039284609676628</v>
+        <v>8906.9926605224391</v>
       </c>
       <c r="M127" s="1">
         <f t="shared" si="9"/>
@@ -6201,14 +7476,14 @@
       </c>
       <c r="N127" s="1">
         <f t="shared" si="10"/>
-        <v>0.84282240104090833</v>
+        <v>150.02238738528169</v>
       </c>
       <c r="O127">
         <f t="shared" si="11"/>
-        <v>2.7337288770787368E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86.615465741362698</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>18</v>
       </c>
@@ -6226,7 +7501,7 @@
       </c>
       <c r="L128" s="1">
         <f t="shared" si="8"/>
-        <v>59.119939789342915</v>
+        <v>10523.349282503039</v>
       </c>
       <c r="M128" s="1">
         <f t="shared" si="9"/>
@@ -6234,14 +7509,14 @@
       </c>
       <c r="N128" s="1">
         <f t="shared" si="10"/>
-        <v>0.77020019835806097</v>
+        <v>137.09563530773485</v>
       </c>
       <c r="O128">
         <f t="shared" si="11"/>
-        <v>2.4981757969209533E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>79.152201949643484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>19</v>
       </c>
@@ -6259,7 +7534,7 @@
       </c>
       <c r="L129" s="1">
         <f t="shared" si="8"/>
-        <v>65.962448733576124</v>
+        <v>11741.31587457655</v>
       </c>
       <c r="M129" s="1">
         <f t="shared" si="9"/>
@@ -6267,14 +7542,14 @@
       </c>
       <c r="N129" s="1">
         <f t="shared" si="10"/>
-        <v>0.54333865379364576</v>
+        <v>96.714280375268956</v>
       </c>
       <c r="O129">
         <f t="shared" si="11"/>
-        <v>1.7623411125218555E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55.838015809142476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>20</v>
       </c>
@@ -6292,7 +7567,7 @@
       </c>
       <c r="L130" s="1">
         <f t="shared" si="8"/>
-        <v>76.531841264681731</v>
+        <v>13622.667745113349</v>
       </c>
       <c r="M130" s="1">
         <f t="shared" si="9"/>
@@ -6300,14 +7575,14 @@
       </c>
       <c r="N130" s="1">
         <f t="shared" si="10"/>
-        <v>1.011442072882953</v>
+        <v>180.03668897316561</v>
       </c>
       <c r="O130">
         <f t="shared" si="11"/>
-        <v>3.2806536688128425E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>103.9442308426661</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>21</v>
       </c>
@@ -6325,7 +7600,7 @@
       </c>
       <c r="L131" s="1">
         <f t="shared" si="8"/>
-        <v>84.753285036997298</v>
+        <v>15086.084736585519</v>
       </c>
       <c r="M131" s="1">
         <f t="shared" si="9"/>
@@ -6333,14 +7608,14 @@
       </c>
       <c r="N131" s="1">
         <f t="shared" si="10"/>
-        <v>1.1990481537051008</v>
+        <v>213.43057135950795</v>
       </c>
       <c r="O131">
         <f t="shared" si="11"/>
-        <v>3.8891616534436164E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>123.22419782770756</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>22</v>
       </c>
@@ -6358,7 +7633,7 @@
       </c>
       <c r="L132" s="1">
         <f t="shared" si="8"/>
-        <v>92.251825275046002</v>
+        <v>16420.824898958188</v>
       </c>
       <c r="M132" s="1">
         <f t="shared" si="9"/>
@@ -6366,14 +7641,14 @@
       </c>
       <c r="N132" s="1">
         <f t="shared" si="10"/>
-        <v>1.0911681923557299</v>
+        <v>194.22793823931994</v>
       </c>
       <c r="O132">
         <f t="shared" si="11"/>
-        <v>3.5392485931895396E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112.13755242661738</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>23</v>
       </c>
@@ -6391,7 +7666,7 @@
       </c>
       <c r="L133" s="1">
         <f t="shared" si="8"/>
-        <v>99.383706745136394</v>
+        <v>17690.299800634279</v>
       </c>
       <c r="M133" s="1">
         <f t="shared" si="9"/>
@@ -6399,14 +7674,14 @@
       </c>
       <c r="N133" s="1">
         <f t="shared" si="10"/>
-        <v>1.4605520200466944</v>
+        <v>259.97825956831161</v>
       </c>
       <c r="O133">
         <f t="shared" si="11"/>
-        <v>4.7373601232551165E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>150.09851814521511</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>24</v>
       </c>
@@ -6424,7 +7699,7 @@
       </c>
       <c r="L134" s="1">
         <f t="shared" si="8"/>
-        <v>105.78551278757219</v>
+        <v>18829.821276187849</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" si="9"/>
@@ -6432,14 +7707,14 @@
       </c>
       <c r="N134" s="1">
         <f t="shared" si="10"/>
-        <v>1.5652849324068607</v>
+        <v>278.62071796842122</v>
       </c>
       <c r="O134">
         <f t="shared" si="11"/>
-        <v>5.0770656015930692E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>160.86174652087479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>25</v>
       </c>
@@ -6457,7 +7732,7 @@
       </c>
       <c r="L135" s="1">
         <f t="shared" si="8"/>
-        <v>113.8385839448885</v>
+        <v>20263.267942190152</v>
       </c>
       <c r="M135" s="1">
         <f t="shared" si="9"/>
@@ -6465,14 +7740,14 @@
       </c>
       <c r="N135" s="1">
         <f t="shared" si="10"/>
-        <v>1.4382849380823939</v>
+        <v>256.01471897866611</v>
       </c>
       <c r="O135">
         <f t="shared" si="11"/>
-        <v>4.6651359335576088E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>147.81016691883929</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>26</v>
       </c>
@@ -6490,7 +7765,7 @@
       </c>
       <c r="L136" s="1">
         <f t="shared" si="8"/>
-        <v>114.31234640217848</v>
+        <v>20347.597659587769</v>
       </c>
       <c r="M136" s="1">
         <f t="shared" si="9"/>
@@ -6498,14 +7773,14 @@
       </c>
       <c r="N136" s="1">
         <f t="shared" si="10"/>
-        <v>1.3620685455705226</v>
+        <v>242.448201111553</v>
       </c>
       <c r="O136">
         <f t="shared" si="11"/>
-        <v>4.417924951909344E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139.97753417629565</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>27</v>
       </c>
@@ -6523,7 +7798,7 @@
       </c>
       <c r="L137" s="1">
         <f t="shared" si="8"/>
-        <v>121.27037710955967</v>
+        <v>21586.127125501622</v>
       </c>
       <c r="M137" s="1">
         <f t="shared" si="9"/>
@@ -6531,14 +7806,14 @@
       </c>
       <c r="N137" s="1">
         <f t="shared" si="10"/>
-        <v>1.3011782713422144</v>
+        <v>231.60973229891417</v>
       </c>
       <c r="O137">
         <f t="shared" si="11"/>
-        <v>4.2204248608040422E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>133.71994128971525</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>28</v>
       </c>
@@ -6556,7 +7831,7 @@
       </c>
       <c r="L138" s="1">
         <f t="shared" si="8"/>
-        <v>125.48144485039641</v>
+        <v>22335.697183370561</v>
       </c>
       <c r="M138" s="1">
         <f t="shared" si="9"/>
@@ -6564,14 +7839,14 @@
       </c>
       <c r="N138" s="1">
         <f t="shared" si="10"/>
-        <v>1.5824728854715524</v>
+        <v>281.68017361393635</v>
       </c>
       <c r="O138">
         <f t="shared" si="11"/>
-        <v>5.1328154292824982E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+        <v>162.62812406138667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>29</v>
       </c>
@@ -6589,7 +7864,7 @@
       </c>
       <c r="L139" s="1">
         <f t="shared" si="8"/>
-        <v>125.47485356518386</v>
+        <v>22334.523934602727</v>
       </c>
       <c r="M139" s="1">
         <f t="shared" si="9"/>
@@ -6597,14 +7872,14 @@
       </c>
       <c r="N139" s="1">
         <f t="shared" si="10"/>
-        <v>1.812543059160415</v>
+        <v>322.63266453055388</v>
       </c>
       <c r="O139">
         <f t="shared" si="11"/>
-        <v>5.8790574332811991E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>186.27205571608152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>30</v>
       </c>
@@ -6622,7 +7897,7 @@
       </c>
       <c r="L140" s="1">
         <f t="shared" si="8"/>
-        <v>127.93018451165574</v>
+        <v>22771.572843074722</v>
       </c>
       <c r="M140" s="1">
         <f t="shared" si="9"/>
@@ -6630,14 +7905,14 @@
       </c>
       <c r="N140" s="1">
         <f t="shared" si="10"/>
-        <v>1.9790802939757495</v>
+        <v>352.27629232768339</v>
       </c>
       <c r="O140">
         <f t="shared" si="11"/>
-        <v>6.4192277554763078E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>203.38681220451133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>31</v>
       </c>
@@ -6655,7 +7930,7 @@
       </c>
       <c r="L141" s="1">
         <f t="shared" si="8"/>
-        <v>127.91538632183922</v>
+        <v>22768.938765287381</v>
       </c>
       <c r="M141" s="1">
         <f t="shared" si="9"/>
@@ -6663,14 +7938,14 @@
       </c>
       <c r="N141" s="1">
         <f t="shared" si="10"/>
-        <v>1.5850459991825052</v>
+        <v>282.13818785448592</v>
       </c>
       <c r="O141">
         <f t="shared" si="11"/>
-        <v>5.141161428685162E-3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+        <v>162.89255870646065</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>32</v>
       </c>
@@ -6688,7 +7963,7 @@
       </c>
       <c r="L142" s="1">
         <f t="shared" si="8"/>
-        <v>129.23337041661966</v>
+        <v>23003.5399341583</v>
       </c>
       <c r="M142" s="1">
         <f t="shared" si="9"/>
@@ -6696,14 +7971,14 @@
       </c>
       <c r="N142" s="1">
         <f t="shared" si="10"/>
-        <v>1.7276018576589296</v>
+        <v>307.51313066328947</v>
       </c>
       <c r="O142">
         <f t="shared" si="11"/>
-        <v>5.6035471773701155E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>177.54278876779475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>33</v>
       </c>
@@ -6721,7 +7996,7 @@
       </c>
       <c r="L143" s="1">
         <f t="shared" si="8"/>
-        <v>125.58765650733123</v>
+        <v>22354.602858304959</v>
       </c>
       <c r="M143" s="1">
         <f t="shared" si="9"/>
@@ -6729,14 +8004,14 @@
       </c>
       <c r="N143" s="1">
         <f t="shared" si="10"/>
-        <v>1.9705741406011972</v>
+        <v>350.76219702701309</v>
       </c>
       <c r="O143">
         <f t="shared" si="11"/>
-        <v>6.3916376996304303E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>202.51264887509058</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>34</v>
       </c>
@@ -6754,7 +8029,7 @@
       </c>
       <c r="L144" s="1">
         <f t="shared" si="8"/>
-        <v>125.9649282492948</v>
+        <v>22421.757228374474</v>
       </c>
       <c r="M144" s="1">
         <f t="shared" si="9"/>
@@ -6762,14 +8037,14 @@
       </c>
       <c r="N144" s="1">
         <f t="shared" si="10"/>
-        <v>1.8541861022357404</v>
+        <v>330.04512619796179</v>
       </c>
       <c r="O144">
         <f t="shared" si="11"/>
-        <v>6.0141283441206058E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+        <v>190.55164245511725</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>35</v>
       </c>
@@ -6787,7 +8062,7 @@
       </c>
       <c r="L145" s="1">
         <f t="shared" si="8"/>
-        <v>124.38204134716068</v>
+        <v>22140.003359794602</v>
       </c>
       <c r="M145" s="1">
         <f t="shared" si="9"/>
@@ -6795,14 +8070,14 @@
       </c>
       <c r="N145" s="1">
         <f t="shared" si="10"/>
-        <v>1.5905112151836445</v>
+        <v>283.1109963026887</v>
       </c>
       <c r="O145">
         <f t="shared" si="11"/>
-        <v>5.1588880799741344E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+        <v>163.45420992590047</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>36</v>
       </c>
@@ -6820,7 +8095,7 @@
       </c>
       <c r="L146" s="1">
         <f t="shared" si="8"/>
-        <v>118.99752722563309</v>
+        <v>21181.559846162691</v>
       </c>
       <c r="M146" s="1">
         <f t="shared" si="9"/>
@@ -6828,14 +8103,14 @@
       </c>
       <c r="N146" s="1">
         <f t="shared" si="10"/>
-        <v>1.9114802866804068</v>
+        <v>340.24349102911242</v>
       </c>
       <c r="O146">
         <f t="shared" si="11"/>
-        <v>6.1999643711550343E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+        <v>196.43967113567609</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>37</v>
       </c>
@@ -6853,7 +8128,7 @@
       </c>
       <c r="L147" s="1">
         <f t="shared" si="8"/>
-        <v>117.12343094389078</v>
+        <v>20847.970708012559</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" si="9"/>
@@ -6861,14 +8136,14 @@
       </c>
       <c r="N147" s="1">
         <f t="shared" si="10"/>
-        <v>1.9804880876845949</v>
+        <v>352.52687960785789</v>
       </c>
       <c r="O147">
         <f t="shared" si="11"/>
-        <v>6.4237939918626299E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+        <v>203.53148883817556</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>38</v>
       </c>
@@ -6886,7 +8161,7 @@
       </c>
       <c r="L148" s="1">
         <f t="shared" si="8"/>
-        <v>112.29794501253679</v>
+        <v>19989.034212231549</v>
       </c>
       <c r="M148" s="1">
         <f t="shared" si="9"/>
@@ -6894,14 +8169,14 @@
       </c>
       <c r="N148" s="1">
         <f t="shared" si="10"/>
-        <v>1.8922878577639703</v>
+        <v>336.82723868198673</v>
       </c>
       <c r="O148">
         <f t="shared" si="11"/>
-        <v>6.1377129441813972E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>194.46729692344337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>39</v>
       </c>
@@ -6919,7 +8194,7 @@
       </c>
       <c r="L149" s="1">
         <f t="shared" si="8"/>
-        <v>108.21462654464692</v>
+        <v>19262.203524947152</v>
       </c>
       <c r="M149" s="1">
         <f t="shared" si="9"/>
@@ -6927,14 +8202,14 @@
       </c>
       <c r="N149" s="1">
         <f t="shared" si="10"/>
-        <v>1.7664356627664293</v>
+        <v>314.4255479724244</v>
       </c>
       <c r="O149">
         <f t="shared" si="11"/>
-        <v>5.7295062101368147E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>181.53367476197482</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>40</v>
       </c>
@@ -6952,7 +8227,7 @@
       </c>
       <c r="L150" s="1">
         <f t="shared" si="8"/>
-        <v>102.62998042916972</v>
+        <v>18268.136516392209</v>
       </c>
       <c r="M150" s="1">
         <f t="shared" si="9"/>
@@ -6960,14 +8235,14 @@
       </c>
       <c r="N150" s="1">
         <f t="shared" si="10"/>
-        <v>1.8262314013067829</v>
+        <v>325.06918943260735</v>
       </c>
       <c r="O150">
         <f t="shared" si="11"/>
-        <v>5.9234561300394312E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>187.67878402416932</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>41</v>
       </c>
@@ -6985,7 +8260,7 @@
       </c>
       <c r="L151" s="1">
         <f t="shared" si="8"/>
-        <v>99.521404466602078</v>
+        <v>17714.80999505517</v>
       </c>
       <c r="M151" s="1">
         <f t="shared" si="9"/>
@@ -6993,14 +8268,14 @@
       </c>
       <c r="N151" s="1">
         <f t="shared" si="10"/>
-        <v>1.7420085522094029</v>
+        <v>310.07752229327372</v>
       </c>
       <c r="O151">
         <f t="shared" si="11"/>
-        <v>5.6502758794872415E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+        <v>179.02334096567378</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>42</v>
       </c>
@@ -7018,7 +8293,7 @@
       </c>
       <c r="L152" s="1">
         <f t="shared" si="8"/>
-        <v>94.977768360061475</v>
+        <v>16906.042768090942</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="9"/>
@@ -7026,14 +8301,14 @@
       </c>
       <c r="N152" s="1">
         <f t="shared" si="10"/>
-        <v>1.5097817745171631</v>
+        <v>268.74115586405503</v>
       </c>
       <c r="O152">
         <f t="shared" si="11"/>
-        <v>4.8970388423318825E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <v>155.15777868044336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43</v>
       </c>
@@ -7051,7 +8326,7 @@
       </c>
       <c r="L153" s="1">
         <f t="shared" si="8"/>
-        <v>88.065484469107602</v>
+        <v>15675.656235501152</v>
       </c>
       <c r="M153" s="1">
         <f t="shared" si="9"/>
@@ -7059,14 +8334,14 @@
       </c>
       <c r="N153" s="1">
         <f t="shared" si="10"/>
-        <v>1.2011374802451669</v>
+        <v>213.80247148363969</v>
       </c>
       <c r="O153">
         <f t="shared" si="11"/>
-        <v>3.8959384694005391E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>123.43891446448667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44</v>
       </c>
@@ -7084,7 +8359,7 @@
       </c>
       <c r="L154" s="1">
         <f t="shared" si="8"/>
-        <v>84.243530423495443</v>
+        <v>14995.34841538219</v>
       </c>
       <c r="M154" s="1">
         <f t="shared" si="9"/>
@@ -7092,14 +8367,14 @@
       </c>
       <c r="N154" s="1">
         <f t="shared" si="10"/>
-        <v>1.6299697363079135</v>
+        <v>290.13461306280863</v>
       </c>
       <c r="O154">
         <f t="shared" si="11"/>
-        <v>5.2868734046534679E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+        <v>167.50929695304049</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45</v>
       </c>
@@ -7117,7 +8392,7 @@
       </c>
       <c r="L155" s="1">
         <f t="shared" si="8"/>
-        <v>77.496977917389501</v>
+        <v>13794.46206929533</v>
       </c>
       <c r="M155" s="1">
         <f t="shared" si="9"/>
@@ -7125,14 +8400,14 @@
       </c>
       <c r="N155" s="1">
         <f t="shared" si="10"/>
-        <v>1.4613210945985551</v>
+        <v>260.11515483854282</v>
       </c>
       <c r="O155">
         <f t="shared" si="11"/>
-        <v>4.7398546479716537E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+        <v>150.17755466633389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>46</v>
       </c>
@@ -7150,7 +8425,7 @@
       </c>
       <c r="L156" s="1">
         <f t="shared" si="8"/>
-        <v>74.552493751509331</v>
+        <v>13270.34388776866</v>
       </c>
       <c r="M156" s="1">
         <f t="shared" si="9"/>
@@ -7158,14 +8433,14 @@
       </c>
       <c r="N156" s="1">
         <f t="shared" si="10"/>
-        <v>1.565415446074683</v>
+        <v>278.64394940129358</v>
       </c>
       <c r="O156">
         <f t="shared" si="11"/>
-        <v>5.0774889280045862E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+        <v>160.87515919489732</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>47</v>
       </c>
@@ -7183,7 +8458,7 @@
       </c>
       <c r="L157" s="1">
         <f t="shared" si="8"/>
-        <v>68.134712048711975</v>
+        <v>12127.978744670731</v>
       </c>
       <c r="M157" s="1">
         <f t="shared" si="9"/>
@@ -7191,14 +8466,14 @@
       </c>
       <c r="N157" s="1">
         <f t="shared" si="10"/>
-        <v>1.4910220185182645</v>
+        <v>265.40191929625109</v>
       </c>
       <c r="O157">
         <f t="shared" si="11"/>
-        <v>4.8361908076358382E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+        <v>153.22986954913392</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>48</v>
       </c>
@@ -7216,7 +8491,7 @@
       </c>
       <c r="L158" s="1">
         <f t="shared" si="8"/>
-        <v>62.762516087506967</v>
+        <v>11171.72786357624</v>
       </c>
       <c r="M158" s="1">
         <f t="shared" si="9"/>
@@ -7224,14 +8499,14 @@
       </c>
       <c r="N158" s="1">
         <f t="shared" si="10"/>
-        <v>1.3508332631967912</v>
+        <v>240.44832084902882</v>
       </c>
       <c r="O158">
         <f t="shared" si="11"/>
-        <v>4.3814828547020677E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+        <v>138.82290276838029</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>49</v>
       </c>
@@ -7249,7 +8524,7 @@
       </c>
       <c r="L159" s="1">
         <f t="shared" si="8"/>
-        <v>59.511911963897354</v>
+        <v>10593.120329573729</v>
       </c>
       <c r="M159" s="1">
         <f t="shared" si="9"/>
@@ -7257,14 +8532,14 @@
       </c>
       <c r="N159" s="1">
         <f t="shared" si="10"/>
-        <v>1.3759022154781306</v>
+        <v>244.91059435510724</v>
       </c>
       <c r="O159">
         <f t="shared" si="11"/>
-        <v>4.4627950251960747E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+        <v>141.39919757831242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>50</v>
       </c>
@@ -7282,7 +8557,7 @@
       </c>
       <c r="L160" s="1">
         <f t="shared" si="8"/>
-        <v>54.334090715624718</v>
+        <v>9671.4681473811997</v>
       </c>
       <c r="M160" s="1">
         <f t="shared" si="9"/>
@@ -7290,14 +8565,14 @@
       </c>
       <c r="N160" s="1">
         <f t="shared" si="10"/>
-        <v>1.3681652374463875</v>
+        <v>243.53341226545697</v>
       </c>
       <c r="O160">
         <f t="shared" si="11"/>
-        <v>4.4376998209862926E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+        <v>140.60408112812971</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>51</v>
       </c>
@@ -7315,7 +8590,7 @@
       </c>
       <c r="L161" s="1">
         <f t="shared" si="8"/>
-        <v>50.909169834713985</v>
+        <v>9061.8322305790898</v>
       </c>
       <c r="M161" s="1">
         <f t="shared" si="9"/>
@@ -7323,14 +8598,14 @@
       </c>
       <c r="N161" s="1">
         <f t="shared" si="10"/>
-        <v>1.3137940580278609</v>
+        <v>233.85534232895924</v>
       </c>
       <c r="O161">
         <f t="shared" si="11"/>
-        <v>4.2613446801242497E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+        <v>135.0164448450567</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>52</v>
       </c>
@@ -7348,7 +8623,7 @@
       </c>
       <c r="L162" s="1">
         <f t="shared" si="8"/>
-        <v>46.213580606055231</v>
+        <v>8226.0173478778306</v>
       </c>
       <c r="M162" s="1">
         <f t="shared" si="9"/>
@@ -7356,14 +8631,14 @@
       </c>
       <c r="N162" s="1">
         <f t="shared" si="10"/>
-        <v>0.95717588028954126</v>
+        <v>170.37730669153834</v>
       </c>
       <c r="O162">
         <f t="shared" si="11"/>
-        <v>3.1046390570055264E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+        <v>98.367383882163097</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>53</v>
       </c>
@@ -7381,7 +8656,7 @@
       </c>
       <c r="L163" s="1">
         <f t="shared" si="8"/>
-        <v>43.13520352561747</v>
+        <v>7678.0662275599097</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" si="9"/>
@@ -7389,14 +8664,14 @@
       </c>
       <c r="N163" s="1">
         <f t="shared" si="10"/>
-        <v>1.3655890505418318</v>
+        <v>243.07485099644606</v>
       </c>
       <c r="O163">
         <f t="shared" si="11"/>
-        <v>4.4293438535546745E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+        <v>140.33933065602631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>54</v>
       </c>
@@ -7414,7 +8689,7 @@
       </c>
       <c r="L164" s="1">
         <f t="shared" si="8"/>
-        <v>39.065398999045001</v>
+        <v>6953.6410218300098</v>
       </c>
       <c r="M164" s="1">
         <f t="shared" si="9"/>
@@ -7422,14 +8697,14 @@
       </c>
       <c r="N164" s="1">
         <f t="shared" si="10"/>
-        <v>0.98347977193920433</v>
+        <v>175.05939940517837</v>
       </c>
       <c r="O164">
         <f t="shared" si="11"/>
-        <v>3.1899568037733225E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+        <v>101.07059137075395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>55</v>
       </c>
@@ -7447,7 +8722,7 @@
       </c>
       <c r="L165" s="1">
         <f t="shared" si="8"/>
-        <v>34.945465713205621</v>
+        <v>6220.2928969506002</v>
       </c>
       <c r="M165" s="1">
         <f t="shared" si="9"/>
@@ -7455,14 +8730,14 @@
       </c>
       <c r="N165" s="1">
         <f t="shared" si="10"/>
-        <v>0.82562323527450698</v>
+        <v>146.96093587886224</v>
       </c>
       <c r="O165">
         <f t="shared" si="11"/>
-        <v>2.6779426805334065E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84.847935890020452</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>56</v>
       </c>
@@ -7480,7 +8755,7 @@
       </c>
       <c r="L166" s="1">
         <f t="shared" si="8"/>
-        <v>30.943716441898374</v>
+        <v>5507.9815266579108</v>
       </c>
       <c r="M166" s="1">
         <f t="shared" si="9"/>
@@ -7488,14 +8763,14 @@
       </c>
       <c r="N166" s="1">
         <f t="shared" si="10"/>
-        <v>0.78795693682320622</v>
+        <v>140.25633475453071</v>
       </c>
       <c r="O166">
         <f t="shared" si="11"/>
-        <v>2.5557705032848935E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80.977032626078582</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>57</v>
       </c>
@@ -7513,7 +8788,7 @@
       </c>
       <c r="L167" s="1">
         <f t="shared" si="8"/>
-        <v>28.997554394772191</v>
+        <v>5161.5646822694498</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" si="9"/>
@@ -7521,14 +8796,14 @@
       </c>
       <c r="N167" s="1">
         <f t="shared" si="10"/>
-        <v>0.92593303542439109</v>
+        <v>164.81608030554162</v>
       </c>
       <c r="O167">
         <f t="shared" si="11"/>
-        <v>3.0033016137856155E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+        <v>95.156608331183435</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>58</v>
       </c>
@@ -7546,7 +8821,7 @@
       </c>
       <c r="L168" s="1">
         <f t="shared" si="8"/>
-        <v>25.975902075429214</v>
+        <v>4623.7105694264001</v>
       </c>
       <c r="M168" s="1">
         <f t="shared" si="9"/>
@@ -7554,14 +8829,14 @@
       </c>
       <c r="N168" s="1">
         <f t="shared" si="10"/>
-        <v>0.90730624725490872</v>
+        <v>161.50051201137376</v>
       </c>
       <c r="O168">
         <f t="shared" si="11"/>
-        <v>2.9428848656744425E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93.242364084029035</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>59</v>
       </c>
@@ -7579,7 +8854,7 @@
       </c>
       <c r="L169" s="1">
         <f t="shared" si="8"/>
-        <v>23.409067420796376</v>
+        <v>4166.8140009017552</v>
       </c>
       <c r="M169" s="1">
         <f t="shared" si="9"/>
@@ -7587,14 +8862,14 @@
       </c>
       <c r="N169" s="1">
         <f t="shared" si="10"/>
-        <v>0.8634846025482068</v>
+        <v>153.70025925358081</v>
       </c>
       <c r="O169">
         <f t="shared" si="11"/>
-        <v>2.800747571473619E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+        <v>88.738886054570159</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>60</v>
       </c>
@@ -7612,7 +8887,7 @@
       </c>
       <c r="L170" s="1">
         <f t="shared" si="8"/>
-        <v>21.21564146911906</v>
+        <v>3776.3841815031928</v>
       </c>
       <c r="M170" s="1">
         <f t="shared" si="9"/>
@@ -7620,14 +8895,14 @@
       </c>
       <c r="N170" s="1">
         <f t="shared" si="10"/>
-        <v>0.84030427980706413</v>
+        <v>149.57416180565741</v>
       </c>
       <c r="O170">
         <f t="shared" si="11"/>
-        <v>2.7255612480213661E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86.356682582308949</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>61</v>
       </c>
@@ -7645,7 +8920,7 @@
       </c>
       <c r="L171" s="1">
         <f t="shared" si="8"/>
-        <v>18.128835022431495</v>
+        <v>3226.9326339928061</v>
       </c>
       <c r="M171" s="1">
         <f t="shared" si="9"/>
@@ -7653,14 +8928,14 @@
       </c>
       <c r="N171" s="1">
         <f t="shared" si="10"/>
-        <v>0.90942601486321206</v>
+        <v>161.87783064565176</v>
       </c>
       <c r="O171">
         <f t="shared" si="11"/>
-        <v>2.9497604184793489E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93.4602090990997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>62</v>
       </c>
@@ -7678,7 +8953,7 @@
       </c>
       <c r="L172" s="1">
         <f t="shared" si="8"/>
-        <v>16.521293586297894</v>
+        <v>2940.7902583610253</v>
       </c>
       <c r="M172" s="1">
         <f t="shared" si="9"/>
@@ -7686,14 +8961,14 @@
       </c>
       <c r="N172" s="1">
         <f t="shared" si="10"/>
-        <v>0.75011564056471702</v>
+        <v>133.52058402051964</v>
       </c>
       <c r="O172">
         <f t="shared" si="11"/>
-        <v>2.4330307135021793E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+        <v>77.088145126603067</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>63</v>
       </c>
@@ -7711,7 +8986,7 @@
       </c>
       <c r="L173" s="1">
         <f t="shared" si="8"/>
-        <v>14.809860292382611</v>
+        <v>2636.1551320441049</v>
       </c>
       <c r="M173" s="1">
         <f t="shared" si="9"/>
@@ -7719,14 +8994,14 @@
       </c>
       <c r="N173" s="1">
         <f t="shared" si="10"/>
-        <v>0.60799055524493129</v>
+        <v>108.22231883359777</v>
       </c>
       <c r="O173">
         <f t="shared" si="11"/>
-        <v>1.9720421951427594E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62.482184910903179</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>64</v>
       </c>
@@ -7744,7 +9019,7 @@
       </c>
       <c r="L174" s="1">
         <f t="shared" si="8"/>
-        <v>12.94576289439887</v>
+        <v>2304.3457952029989</v>
       </c>
       <c r="M174" s="1">
         <f t="shared" si="9"/>
@@ -7752,14 +9027,14 @@
       </c>
       <c r="N174" s="1">
         <f t="shared" si="10"/>
-        <v>0.49663222573623578</v>
+        <v>88.400536181049972</v>
       </c>
       <c r="O174">
         <f t="shared" si="11"/>
-        <v>1.610846905713813E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51.038073360636453</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>65</v>
       </c>
@@ -7776,23 +9051,23 @@
         <v>504.45868948100002</v>
       </c>
       <c r="L175" s="1">
-        <f t="shared" ref="L175:L209" si="12">SUM(B175:K175)/178</f>
-        <v>11.996879723801898</v>
+        <f t="shared" ref="L175:L209" si="12">SUM(B175:K175)</f>
+        <v>2135.4445908367379</v>
       </c>
       <c r="M175" s="1">
         <f t="shared" ref="M175:M209" si="13">AVERAGE(B175:K175)</f>
         <v>533.86114770918448</v>
       </c>
       <c r="N175" s="1">
-        <f t="shared" ref="N175:N209" si="14">STDEV(B175:K175)/178</f>
-        <v>0.65743862399330977</v>
+        <f t="shared" ref="N175:N209" si="14">STDEV(B175:K175)</f>
+        <v>117.02407507080915</v>
       </c>
       <c r="O175">
-        <f t="shared" ref="O175:O209" si="15">N175/SQRT(3)/178</f>
-        <v>2.1324290254954754E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O175:O209" si="15">N175/SQRT(3)</f>
+        <v>67.563881243798633</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>66</v>
       </c>
@@ -7810,7 +9085,7 @@
       </c>
       <c r="L176" s="1">
         <f t="shared" si="12"/>
-        <v>10.814787456511938</v>
+        <v>1925.0321672591251</v>
       </c>
       <c r="M176" s="1">
         <f t="shared" si="13"/>
@@ -7818,14 +9093,14 @@
       </c>
       <c r="N176" s="1">
         <f t="shared" si="14"/>
-        <v>0.39232309821856426</v>
+        <v>69.833511482904441</v>
       </c>
       <c r="O176">
         <f t="shared" si="15"/>
-        <v>1.272515990819079E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40.318396653111705</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>67</v>
       </c>
@@ -7843,7 +9118,7 @@
       </c>
       <c r="L177" s="1">
         <f t="shared" si="12"/>
-        <v>9.9875762860533879</v>
+        <v>1777.7885789175029</v>
       </c>
       <c r="M177" s="1">
         <f t="shared" si="13"/>
@@ -7851,14 +9126,14 @@
       </c>
       <c r="N177" s="1">
         <f t="shared" si="14"/>
-        <v>0.47284203818211856</v>
+        <v>84.165882796417108</v>
       </c>
       <c r="O177">
         <f t="shared" si="15"/>
-        <v>1.5336824608349294E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48.593195089093911</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>68</v>
       </c>
@@ -7876,7 +9151,7 @@
       </c>
       <c r="L178" s="1">
         <f t="shared" si="12"/>
-        <v>8.9293380732742182</v>
+        <v>1589.422177042811</v>
       </c>
       <c r="M178" s="1">
         <f t="shared" si="13"/>
@@ -7884,14 +9159,14 @@
       </c>
       <c r="N178" s="1">
         <f t="shared" si="14"/>
-        <v>0.40818272406153322</v>
+        <v>72.656524882952908</v>
       </c>
       <c r="O178">
         <f t="shared" si="15"/>
-        <v>1.3239573349184324E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41.948264199555609</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>69</v>
       </c>
@@ -7909,7 +9184,7 @@
       </c>
       <c r="L179" s="1">
         <f t="shared" si="12"/>
-        <v>7.4736445310912645</v>
+        <v>1330.3087265342451</v>
       </c>
       <c r="M179" s="1">
         <f t="shared" si="13"/>
@@ -7917,14 +9192,14 @@
       </c>
       <c r="N179" s="1">
         <f t="shared" si="14"/>
-        <v>0.32973488650604743</v>
+        <v>58.692809798076439</v>
       </c>
       <c r="O179">
         <f t="shared" si="15"/>
-        <v>1.0695085701431302E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33.886309536414942</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>70</v>
       </c>
@@ -7942,7 +9217,7 @@
       </c>
       <c r="L180" s="1">
         <f t="shared" si="12"/>
-        <v>6.6357138661897865</v>
+        <v>1181.1570681817821</v>
       </c>
       <c r="M180" s="1">
         <f t="shared" si="13"/>
@@ -7950,14 +9225,14 @@
       </c>
       <c r="N180" s="1">
         <f t="shared" si="14"/>
-        <v>0.34494043443288885</v>
+        <v>61.399397329054217</v>
       </c>
       <c r="O180">
         <f t="shared" si="15"/>
-        <v>1.1188283858101957E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35.448958576010241</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>71</v>
       </c>
@@ -7975,7 +9250,7 @@
       </c>
       <c r="L181" s="1">
         <f t="shared" si="12"/>
-        <v>5.0454231558571347</v>
+        <v>898.08532174256993</v>
       </c>
       <c r="M181" s="1">
         <f t="shared" si="13"/>
@@ -7983,14 +9258,14 @@
       </c>
       <c r="N181" s="1">
         <f t="shared" si="14"/>
-        <v>0.2041052505158478</v>
+        <v>36.330734591820907</v>
       </c>
       <c r="O181">
         <f t="shared" si="15"/>
-        <v>6.6202371532775696E-4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20.975559396444652</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>72</v>
       </c>
@@ -8008,7 +9283,7 @@
       </c>
       <c r="L182" s="1">
         <f t="shared" si="12"/>
-        <v>4.8921148534131573</v>
+        <v>870.79644390754197</v>
       </c>
       <c r="M182" s="1">
         <f t="shared" si="13"/>
@@ -8016,14 +9291,14 @@
       </c>
       <c r="N182" s="1">
         <f t="shared" si="14"/>
-        <v>0.2357224165394233</v>
+        <v>41.95859014401735</v>
       </c>
       <c r="O182">
         <f t="shared" si="15"/>
-        <v>7.6457528451160186E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24.224803314465596</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>73</v>
       </c>
@@ -8041,7 +9316,7 @@
       </c>
       <c r="L183" s="1">
         <f t="shared" si="12"/>
-        <v>4.2721344376547865</v>
+        <v>760.43992990255197</v>
       </c>
       <c r="M183" s="1">
         <f t="shared" si="13"/>
@@ -8049,14 +9324,14 @@
       </c>
       <c r="N183" s="1">
         <f t="shared" si="14"/>
-        <v>0.13752151644069105</v>
+        <v>24.478829926443009</v>
       </c>
       <c r="O183">
         <f t="shared" si="15"/>
-        <v>4.4605665469886816E-4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.13285904747894</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>74</v>
       </c>
@@ -8074,7 +9349,7 @@
       </c>
       <c r="L184" s="1">
         <f t="shared" si="12"/>
-        <v>3.5906712640380283</v>
+        <v>639.13948499876903</v>
       </c>
       <c r="M184" s="1">
         <f t="shared" si="13"/>
@@ -8082,14 +9357,14 @@
       </c>
       <c r="N184" s="1">
         <f t="shared" si="14"/>
-        <v>0.18015667271452029</v>
+        <v>32.067887743184613</v>
       </c>
       <c r="O184">
         <f t="shared" si="15"/>
-        <v>5.843455252136832E-4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18.51440362087034</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>75</v>
       </c>
@@ -8107,7 +9382,7 @@
       </c>
       <c r="L185" s="1">
         <f t="shared" si="12"/>
-        <v>3.3833198597801069</v>
+        <v>602.23093504085898</v>
       </c>
       <c r="M185" s="1">
         <f t="shared" si="13"/>
@@ -8115,14 +9390,14 @@
       </c>
       <c r="N185" s="1">
         <f t="shared" si="14"/>
-        <v>0.19311731208098873</v>
+        <v>34.374881550415992</v>
       </c>
       <c r="O185">
         <f t="shared" si="15"/>
-        <v>6.2638388828727988E-4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19.846347116494176</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>76</v>
       </c>
@@ -8140,7 +9415,7 @@
       </c>
       <c r="L186" s="1">
         <f t="shared" si="12"/>
-        <v>2.6209322247350619</v>
+        <v>466.52593600284104</v>
       </c>
       <c r="M186" s="1">
         <f t="shared" si="13"/>
@@ -8148,14 +9423,14 @@
       </c>
       <c r="N186" s="1">
         <f t="shared" si="14"/>
-        <v>9.9372432396167887E-2</v>
+        <v>17.688292966517885</v>
       </c>
       <c r="O186">
         <f t="shared" si="15"/>
-        <v>3.2231854266267092E-4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.212340705724065</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>77</v>
       </c>
@@ -8173,7 +9448,7 @@
       </c>
       <c r="L187" s="1">
         <f t="shared" si="12"/>
-        <v>2.6079076107630743</v>
+        <v>464.2075547158272</v>
       </c>
       <c r="M187" s="1">
         <f t="shared" si="13"/>
@@ -8181,14 +9456,14 @@
       </c>
       <c r="N187" s="1">
         <f t="shared" si="14"/>
-        <v>0.15527675240015928</v>
+        <v>27.63926192722835</v>
       </c>
       <c r="O187">
         <f t="shared" si="15"/>
-        <v>5.0364648762428563E-4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.957535313887863</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>78</v>
       </c>
@@ -8206,7 +9481,7 @@
       </c>
       <c r="L188" s="1">
         <f t="shared" si="12"/>
-        <v>2.0613129109005461</v>
+        <v>366.91369814029719</v>
       </c>
       <c r="M188" s="1">
         <f t="shared" si="13"/>
@@ -8214,14 +9489,14 @@
       </c>
       <c r="N188" s="1">
         <f t="shared" si="14"/>
-        <v>0.12750116272308196</v>
+        <v>22.695206964708589</v>
       </c>
       <c r="O188">
         <f t="shared" si="15"/>
-        <v>4.1355522820315534E-4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13.103083850388774</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>79</v>
       </c>
@@ -8239,7 +9514,7 @@
       </c>
       <c r="L189" s="1">
         <f t="shared" si="12"/>
-        <v>1.6456784325118132</v>
+        <v>292.93076098710276</v>
       </c>
       <c r="M189" s="1">
         <f t="shared" si="13"/>
@@ -8247,14 +9522,14 @@
       </c>
       <c r="N189" s="1">
         <f t="shared" si="14"/>
-        <v>7.4218625794758436E-2</v>
+        <v>13.210915391467001</v>
       </c>
       <c r="O189">
         <f t="shared" si="15"/>
-        <v>2.4073114371622408E-4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.627325557504844</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>80</v>
       </c>
@@ -8272,7 +9547,7 @@
       </c>
       <c r="L190" s="1">
         <f t="shared" si="12"/>
-        <v>1.3240985790361752</v>
+        <v>235.6895470684392</v>
       </c>
       <c r="M190" s="1">
         <f t="shared" si="13"/>
@@ -8280,14 +9555,14 @@
       </c>
       <c r="N190" s="1">
         <f t="shared" si="14"/>
-        <v>0.11538072050156939</v>
+        <v>20.537768249279353</v>
       </c>
       <c r="O190">
         <f t="shared" si="15"/>
-        <v>3.74242078881315E-4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.857486027275584</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>81</v>
       </c>
@@ -8305,7 +9580,7 @@
       </c>
       <c r="L191" s="1">
         <f t="shared" si="12"/>
-        <v>0.92905871318967026</v>
+        <v>165.37245094776131</v>
       </c>
       <c r="M191" s="1">
         <f t="shared" si="13"/>
@@ -8313,14 +9588,14 @@
       </c>
       <c r="N191" s="1">
         <f t="shared" si="14"/>
-        <v>8.7352718537556745E-2</v>
+        <v>15.548783899685102</v>
       </c>
       <c r="O191">
         <f t="shared" si="15"/>
-        <v>2.833321098994607E-4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.9770945700545131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>82</v>
       </c>
@@ -8338,7 +9613,7 @@
       </c>
       <c r="L192" s="1">
         <f t="shared" si="12"/>
-        <v>1.1525912084982961</v>
+        <v>205.16123511269669</v>
       </c>
       <c r="M192" s="1">
         <f t="shared" si="13"/>
@@ -8346,14 +9621,14 @@
       </c>
       <c r="N192" s="1">
         <f t="shared" si="14"/>
-        <v>0.10763730520631595</v>
+        <v>19.159440326724241</v>
       </c>
       <c r="O192">
         <f t="shared" si="15"/>
-        <v>3.491259951444518E-4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.061708030156812</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>83</v>
       </c>
@@ -8371,7 +9646,7 @@
       </c>
       <c r="L193" s="1">
         <f t="shared" si="12"/>
-        <v>0.90336247039644779</v>
+        <v>160.7985197305677</v>
       </c>
       <c r="M193" s="1">
         <f t="shared" si="13"/>
@@ -8379,14 +9654,14 @@
       </c>
       <c r="N193" s="1">
         <f t="shared" si="14"/>
-        <v>7.9316031103731935E-2</v>
+        <v>14.118253536464286</v>
       </c>
       <c r="O193">
         <f t="shared" si="15"/>
-        <v>2.5726478600445152E-4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.1511774797650425</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>84</v>
       </c>
@@ -8404,7 +9679,7 @@
       </c>
       <c r="L194" s="1">
         <f t="shared" si="12"/>
-        <v>0.85085225681345167</v>
+        <v>151.4517017127944</v>
       </c>
       <c r="M194" s="1">
         <f t="shared" si="13"/>
@@ -8412,14 +9687,14 @@
       </c>
       <c r="N194" s="1">
         <f t="shared" si="14"/>
-        <v>9.0518007290679506E-2</v>
+        <v>16.112205297740953</v>
       </c>
       <c r="O194">
         <f t="shared" si="15"/>
-        <v>2.9359885323473217E-4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3023860658892534</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>85</v>
       </c>
@@ -8437,7 +9712,7 @@
       </c>
       <c r="L195" s="1">
         <f t="shared" si="12"/>
-        <v>0.58011402204381524</v>
+        <v>103.26029592379911</v>
       </c>
       <c r="M195" s="1">
         <f t="shared" si="13"/>
@@ -8445,14 +9720,14 @@
       </c>
       <c r="N195" s="1">
         <f t="shared" si="14"/>
-        <v>6.9305024373374643E-2</v>
+        <v>12.336294338460686</v>
       </c>
       <c r="O195">
         <f t="shared" si="15"/>
-        <v>2.2479367684360353E-4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.1223628571127335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>86</v>
       </c>
@@ -8470,7 +9745,7 @@
       </c>
       <c r="L196" s="1">
         <f t="shared" si="12"/>
-        <v>0.51722762596615501</v>
+        <v>92.06651742197559</v>
       </c>
       <c r="M196" s="1">
         <f t="shared" si="13"/>
@@ -8478,14 +9753,14 @@
       </c>
       <c r="N196" s="1">
         <f t="shared" si="14"/>
-        <v>9.0920500550935549E-2</v>
+        <v>16.183849098066528</v>
       </c>
       <c r="O196">
         <f t="shared" si="15"/>
-        <v>2.9490435656145031E-4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3437496332929921</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>87</v>
       </c>
@@ -8503,7 +9778,7 @@
       </c>
       <c r="L197" s="1">
         <f t="shared" si="12"/>
-        <v>0.38754483929761913</v>
+        <v>68.982981394976207</v>
       </c>
       <c r="M197" s="1">
         <f t="shared" si="13"/>
@@ -8511,14 +9786,14 @@
       </c>
       <c r="N197" s="1">
         <f t="shared" si="14"/>
-        <v>5.3401911205408964E-2</v>
+        <v>9.505540194562796</v>
       </c>
       <c r="O197">
         <f t="shared" si="15"/>
-        <v>1.732112798296818E-4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.4880261901236382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>88</v>
       </c>
@@ -8536,7 +9811,7 @@
       </c>
       <c r="L198" s="1">
         <f t="shared" si="12"/>
-        <v>0.15567212392774832</v>
+        <v>27.709638059139198</v>
       </c>
       <c r="M198" s="1">
         <f t="shared" si="13"/>
@@ -8544,14 +9819,14 @@
       </c>
       <c r="N198" s="1">
         <f t="shared" si="14"/>
-        <v>7.3477623137530104E-2</v>
+        <v>13.079016918480358</v>
       </c>
       <c r="O198">
         <f t="shared" si="15"/>
-        <v>2.383276713363308E-4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.5511739386203045</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>89</v>
       </c>
@@ -8569,7 +9844,7 @@
       </c>
       <c r="L199" s="1">
         <f t="shared" si="12"/>
-        <v>0.21965297587801846</v>
+        <v>39.098229706287285</v>
       </c>
       <c r="M199" s="1">
         <f t="shared" si="13"/>
@@ -8577,14 +9852,14 @@
       </c>
       <c r="N199" s="1">
         <f t="shared" si="14"/>
-        <v>3.0161494080660111E-2</v>
+        <v>5.3687459463574996</v>
       </c>
       <c r="O199">
         <f t="shared" si="15"/>
-        <v>9.7830037790058534E-5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.0996469173402148</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>90</v>
       </c>
@@ -8602,7 +9877,7 @@
       </c>
       <c r="L200" s="1">
         <f t="shared" si="12"/>
-        <v>-1.6159720174717448E-3</v>
+        <v>-0.28764301910997059</v>
       </c>
       <c r="M200" s="1">
         <f t="shared" si="13"/>
@@ -8610,14 +9885,14 @@
       </c>
       <c r="N200" s="1">
         <f t="shared" si="14"/>
-        <v>2.1746600461416635E-2</v>
+        <v>3.8708948821321614</v>
       </c>
       <c r="O200">
         <f t="shared" si="15"/>
-        <v>7.0535986687405257E-5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.2348622022037481</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>91</v>
       </c>
@@ -8635,7 +9910,7 @@
       </c>
       <c r="L201" s="1">
         <f t="shared" si="12"/>
-        <v>8.9903914714964082E-3</v>
+        <v>1.6002896819263608</v>
       </c>
       <c r="M201" s="1">
         <f t="shared" si="13"/>
@@ -8643,14 +9918,14 @@
       </c>
       <c r="N201" s="1">
         <f t="shared" si="14"/>
-        <v>7.1974390950094752E-2</v>
+        <v>12.811441589116866</v>
       </c>
       <c r="O201">
         <f t="shared" si="15"/>
-        <v>2.3345187634717175E-4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.3966892501837895</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>92</v>
       </c>
@@ -8668,7 +9943,7 @@
       </c>
       <c r="L202" s="1">
         <f t="shared" si="12"/>
-        <v>0.17920507703844957</v>
+        <v>31.898503712844025</v>
       </c>
       <c r="M202" s="1">
         <f t="shared" si="13"/>
@@ -8676,14 +9951,14 @@
       </c>
       <c r="N202" s="1">
         <f t="shared" si="14"/>
-        <v>4.8420014684426152E-2</v>
+        <v>8.6187626138278546</v>
       </c>
       <c r="O202">
         <f t="shared" si="15"/>
-        <v>1.5705229501246671E-4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.9760449151749944</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>93</v>
       </c>
@@ -8701,7 +9976,7 @@
       </c>
       <c r="L203" s="1">
         <f t="shared" si="12"/>
-        <v>7.2296703736601173E-2</v>
+        <v>12.868813265115008</v>
       </c>
       <c r="M203" s="1">
         <f t="shared" si="13"/>
@@ -8709,14 +9984,14 @@
       </c>
       <c r="N203" s="1">
         <f t="shared" si="14"/>
-        <v>1.0070285329698645E-2</v>
+        <v>1.7925107886863589</v>
       </c>
       <c r="O203">
         <f t="shared" si="15"/>
-        <v>3.2663381718639623E-5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0349065863733777</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>94</v>
       </c>
@@ -8734,7 +10009,7 @@
       </c>
       <c r="L204" s="1">
         <f t="shared" si="12"/>
-        <v>-5.5776074698738534E-2</v>
+        <v>-9.9281412963754594</v>
       </c>
       <c r="M204" s="1">
         <f t="shared" si="13"/>
@@ -8742,14 +10017,14 @@
       </c>
       <c r="N204" s="1">
         <f t="shared" si="14"/>
-        <v>3.0743891214747202E-2</v>
+        <v>5.4724126362250018</v>
       </c>
       <c r="O204">
         <f t="shared" si="15"/>
-        <v>9.9719066678488033E-5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1594989086412144</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>95</v>
       </c>
@@ -8767,7 +10042,7 @@
       </c>
       <c r="L205" s="1">
         <f t="shared" si="12"/>
-        <v>-0.13453670266722592</v>
+        <v>-23.947533074766213</v>
       </c>
       <c r="M205" s="1">
         <f t="shared" si="13"/>
@@ -8775,14 +10050,14 @@
       </c>
       <c r="N205" s="1">
         <f t="shared" si="14"/>
-        <v>4.5457964529206668E-2</v>
+        <v>8.0915176861987863</v>
       </c>
       <c r="O205">
         <f t="shared" si="15"/>
-        <v>1.4744476436938164E-4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.6716399142794875</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>96</v>
       </c>
@@ -8800,7 +10075,7 @@
       </c>
       <c r="L206" s="1">
         <f t="shared" si="12"/>
-        <v>-0.1001476694207135</v>
+        <v>-17.826285156887003</v>
       </c>
       <c r="M206" s="1">
         <f t="shared" si="13"/>
@@ -8808,14 +10083,14 @@
       </c>
       <c r="N206" s="1">
         <f t="shared" si="14"/>
-        <v>2.5200813891588181E-2</v>
+        <v>4.4857448727026963</v>
       </c>
       <c r="O206">
         <f t="shared" si="15"/>
-        <v>8.1739869011832002E-5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.5898460097708855</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>97</v>
       </c>
@@ -8833,7 +10108,7 @@
       </c>
       <c r="L207" s="1">
         <f t="shared" si="12"/>
-        <v>-1.521478250120503E-3</v>
+        <v>-0.27082312852144952</v>
       </c>
       <c r="M207" s="1">
         <f t="shared" si="13"/>
@@ -8841,14 +10116,14 @@
       </c>
       <c r="N207" s="1">
         <f t="shared" si="14"/>
-        <v>4.7781849289903727E-2</v>
+        <v>8.5051691736028641</v>
       </c>
       <c r="O207">
         <f t="shared" si="15"/>
-        <v>1.5498237949384294E-4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.9104617118829204</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>98</v>
       </c>
@@ -8866,7 +10141,7 @@
       </c>
       <c r="L208" s="1">
         <f t="shared" si="12"/>
-        <v>5.1927833399327585E-2</v>
+        <v>9.2431543450803098</v>
       </c>
       <c r="M208" s="1">
         <f t="shared" si="13"/>
@@ -8874,14 +10149,14 @@
       </c>
       <c r="N208" s="1">
         <f t="shared" si="14"/>
-        <v>7.2875034414835921E-2</v>
+        <v>12.971756125840795</v>
       </c>
       <c r="O208">
         <f t="shared" si="15"/>
-        <v>2.3637315020566719E-4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.4892468911163599</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>99</v>
       </c>
@@ -8899,7 +10174,7 @@
       </c>
       <c r="L209" s="1">
         <f t="shared" si="12"/>
-        <v>-8.8545322847248767E-2</v>
+        <v>-15.76106746681028</v>
       </c>
       <c r="M209" s="1">
         <f t="shared" si="13"/>
@@ -8907,11 +10182,11 @@
       </c>
       <c r="N209" s="1">
         <f t="shared" si="14"/>
-        <v>3.8033117788904384E-2</v>
+        <v>6.7698949664249808</v>
       </c>
       <c r="O209">
         <f t="shared" si="15"/>
-        <v>1.2336197075025107E-4</v>
+        <v>3.9086006812509555</v>
       </c>
     </row>
   </sheetData>
